--- a/Code/Results/Cases/Case_1_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.13054099466551</v>
+        <v>25.13054099466554</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.148601758432256</v>
+        <v>7.148601758432383</v>
       </c>
       <c r="E2">
-        <v>26.06047649626225</v>
+        <v>26.06047649626242</v>
       </c>
       <c r="F2">
-        <v>39.62680952503241</v>
+        <v>39.62680952503229</v>
       </c>
       <c r="G2">
-        <v>32.87637577200549</v>
+        <v>32.87637577200543</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.35320311991327</v>
+        <v>17.35320311991343</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>72.51479573304513</v>
+        <v>72.51479573304539</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.25699503015016</v>
+        <v>23.2569950301501</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.554252721595824</v>
+        <v>6.554252721595775</v>
       </c>
       <c r="E3">
-        <v>24.14487820306823</v>
+        <v>24.14487820306825</v>
       </c>
       <c r="F3">
-        <v>35.69194141358577</v>
+        <v>35.69194141358581</v>
       </c>
       <c r="G3">
-        <v>29.61713297183088</v>
+        <v>29.6171329718309</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.03964690544367</v>
+        <v>16.0396469054437</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.06457906365048</v>
+        <v>22.06457906365042</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.186967335500131</v>
+        <v>6.186967335500098</v>
       </c>
       <c r="E4">
-        <v>22.92547592504483</v>
+        <v>22.92547592504479</v>
       </c>
       <c r="F4">
-        <v>33.32086872519455</v>
+        <v>33.32086872519447</v>
       </c>
       <c r="G4">
-        <v>27.63994297562525</v>
+        <v>27.63994297562516</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.20779214649267</v>
+        <v>15.20779214649263</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>63.6077648672982</v>
+        <v>63.60776486729809</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.56716541977206</v>
+        <v>21.56716541977211</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.036107710214683</v>
+        <v>6.036107710214713</v>
       </c>
       <c r="E5">
-        <v>22.41671453831016</v>
+        <v>22.41671453831006</v>
       </c>
       <c r="F5">
-        <v>32.36224874620219</v>
+        <v>32.36224874620203</v>
       </c>
       <c r="G5">
-        <v>26.83704195549429</v>
+        <v>26.83704195549415</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.86159974885867</v>
+        <v>14.8615997488586</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>62.16854790672019</v>
+        <v>62.16854790671999</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.48385237418172</v>
+        <v>21.48385237418171</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.010970917753656</v>
+        <v>6.010970917753614</v>
       </c>
       <c r="E6">
-        <v>22.33149471115591</v>
+        <v>22.33149471115594</v>
       </c>
       <c r="F6">
-        <v>32.20344525315414</v>
+        <v>32.20344525315423</v>
       </c>
       <c r="G6">
-        <v>26.70381467603174</v>
+        <v>26.7038146760318</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.80365820232853</v>
+        <v>14.80365820232857</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>61.92762570511117</v>
+        <v>61.92762570511133</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.05791840000724</v>
+        <v>22.0579184000072</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.184938289815952</v>
+        <v>6.184938289815867</v>
       </c>
       <c r="E7">
-        <v>22.91866370351168</v>
+        <v>22.91866370351165</v>
       </c>
       <c r="F7">
-        <v>33.30791361919713</v>
+        <v>33.30791361919698</v>
       </c>
       <c r="G7">
-        <v>27.62910692575558</v>
+        <v>27.62910692575544</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>63.58848349290904</v>
+        <v>63.58848349290896</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.49265462108887</v>
+        <v>24.49265462108875</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.943752193678137</v>
+        <v>6.943752193678248</v>
       </c>
       <c r="E8">
-        <v>25.40829156917111</v>
+        <v>25.40829156917084</v>
       </c>
       <c r="F8">
-        <v>38.258097636211</v>
+        <v>38.25809763621123</v>
       </c>
       <c r="G8">
-        <v>31.74535170293207</v>
+        <v>31.74535170293228</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.90498434020434</v>
+        <v>16.90498434020413</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>70.65589593893134</v>
+        <v>70.6558959389309</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.98857487010689</v>
+        <v>28.98857487010696</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.450573444931056</v>
+        <v>8.450573444931063</v>
       </c>
       <c r="E9">
-        <v>30.00651551195012</v>
+        <v>30.00651551195017</v>
       </c>
       <c r="F9">
-        <v>48.57778164941614</v>
+        <v>48.57778164941616</v>
       </c>
       <c r="G9">
         <v>40.22204978811956</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.09176336494875</v>
+        <v>20.09176336494878</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>83.84370411505088</v>
+        <v>83.84370411505103</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.23622726266523</v>
+        <v>32.23622726266527</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.651192564479585</v>
+        <v>9.651192564479734</v>
       </c>
       <c r="E10">
-        <v>33.33483333153922</v>
+        <v>33.33483333153939</v>
       </c>
       <c r="F10">
-        <v>57.12354439815909</v>
+        <v>57.12354439815903</v>
       </c>
       <c r="G10">
-        <v>47.18096006554485</v>
+        <v>47.18096006554484</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.44703826325176</v>
+        <v>22.44703826325189</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>93.53925546010939</v>
+        <v>93.53925546010977</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.74859908943472</v>
+        <v>33.74859908943469</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.25351526306891</v>
+        <v>10.25351526306885</v>
       </c>
       <c r="E11">
-        <v>34.88880910174563</v>
+        <v>34.88880910174556</v>
       </c>
       <c r="F11">
-        <v>61.48406810252474</v>
+        <v>61.48406810252452</v>
       </c>
       <c r="G11">
-        <v>50.71904951998706</v>
+        <v>50.71904951998685</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.5653808667187</v>
+        <v>23.56538086671866</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>98.12552977187981</v>
+        <v>98.12552977187963</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.49560783689611</v>
+        <v>10.49560783689619</v>
       </c>
       <c r="E12">
-        <v>35.49103496874381</v>
+        <v>35.4910349687437</v>
       </c>
       <c r="F12">
-        <v>63.24696104209369</v>
+        <v>63.2469610420932</v>
       </c>
       <c r="G12">
-        <v>52.14765102731121</v>
+        <v>52.14765102731081</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.00260632765287</v>
+        <v>24.00260632765279</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>99.9155171137046</v>
+        <v>99.91551711370423</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.20701947727021</v>
+        <v>34.20701947727</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.44269977375251</v>
+        <v>10.44269977375246</v>
       </c>
       <c r="E13">
-        <v>35.36052911325688</v>
+        <v>35.36052911325675</v>
       </c>
       <c r="F13">
-        <v>62.86125295765333</v>
+        <v>62.8612529576531</v>
       </c>
       <c r="G13">
-        <v>51.83516155744829</v>
+        <v>51.8351615574481</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.90766247809315</v>
+        <v>23.90766247809308</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>99.52696256744056</v>
+        <v>99.52696256744029</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.79643026586898</v>
+        <v>33.79643026586906</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.27310116899267</v>
+        <v>10.2731011689927</v>
       </c>
       <c r="E14">
-        <v>34.93801169134586</v>
+        <v>34.93801169134594</v>
       </c>
       <c r="F14">
-        <v>61.62649425729094</v>
+        <v>61.62649425729101</v>
       </c>
       <c r="G14">
-        <v>50.83450271565998</v>
+        <v>50.83450271566004</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.60101803072168</v>
+        <v>23.60101803072176</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>98.27149044594066</v>
+        <v>98.2714904459408</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.54686892997842</v>
+        <v>33.54686892997852</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.17129289148679</v>
+        <v>10.17129289148689</v>
       </c>
       <c r="E15">
-        <v>34.68133520477147</v>
+        <v>34.6813352047717</v>
       </c>
       <c r="F15">
-        <v>60.8865572676139</v>
+        <v>60.88655726761441</v>
       </c>
       <c r="G15">
-        <v>50.23462642219641</v>
+        <v>50.23462642219682</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.41526968533931</v>
+        <v>23.4152696853395</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>97.51058827589868</v>
+        <v>97.51058827589934</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.13862493226758</v>
+        <v>32.13862493226761</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.613376712106097</v>
+        <v>9.613376712105994</v>
       </c>
       <c r="E16">
-        <v>33.23465260639306</v>
+        <v>33.2346526063931</v>
       </c>
       <c r="F16">
-        <v>56.85116807646029</v>
+        <v>56.85116807646037</v>
       </c>
       <c r="G16">
-        <v>46.95971760721649</v>
+        <v>46.95971760721653</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.37539308395086</v>
+        <v>22.37539308395091</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>93.24505371575924</v>
+        <v>93.24505371575931</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.28763300129125</v>
+        <v>31.28763300129119</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.288585887695437</v>
+        <v>9.288585887695399</v>
       </c>
       <c r="E17">
-        <v>32.36164999044202</v>
+        <v>32.361649990442</v>
       </c>
       <c r="F17">
-        <v>54.51952638363326</v>
+        <v>54.51952638363296</v>
       </c>
       <c r="G17">
-        <v>45.06448018511408</v>
+        <v>45.06448018511384</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.75318358647107</v>
+        <v>21.7531835864711</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>90.68807095751768</v>
+        <v>90.68807095751764</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.80084720699032</v>
+        <v>30.80084720699034</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.106567967621714</v>
+        <v>9.106567967621888</v>
       </c>
       <c r="E18">
-        <v>31.86261869287793</v>
+        <v>31.86261869287794</v>
       </c>
       <c r="F18">
-        <v>53.21932552756245</v>
+        <v>53.21932552756215</v>
       </c>
       <c r="G18">
-        <v>44.00652139508168</v>
+        <v>44.00652139508147</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.39914638245784</v>
+        <v>21.3991463824579</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.63633345489057</v>
+        <v>30.63633345489047</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.045641042189336</v>
+        <v>9.045641042189324</v>
       </c>
       <c r="E19">
-        <v>31.6940175277778</v>
+        <v>31.69401752777757</v>
       </c>
       <c r="F19">
-        <v>52.78522359522955</v>
+        <v>52.7852235952293</v>
       </c>
       <c r="G19">
-        <v>43.65310530408842</v>
+        <v>43.65310530408822</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.27978813603849</v>
+        <v>21.27978813603828</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>88.74031403510051</v>
+        <v>88.74031403510006</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.37790558237388</v>
+        <v>31.37790558237396</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.322633679580507</v>
+        <v>9.322633679580381</v>
       </c>
       <c r="E20">
-        <v>32.45421963020355</v>
+        <v>32.4542196302036</v>
       </c>
       <c r="F20">
-        <v>54.76327454031124</v>
+        <v>54.76327454031129</v>
       </c>
       <c r="G20">
         <v>45.26272300017222</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>90.95864628731313</v>
+        <v>90.95864628731319</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.91660490088966</v>
+        <v>33.91660490088959</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.32246598486596</v>
+        <v>10.32246598486589</v>
       </c>
       <c r="E21">
-        <v>35.06164843056576</v>
+        <v>35.06164843056565</v>
       </c>
       <c r="F21">
-        <v>61.98562698514201</v>
+        <v>61.98562698514144</v>
       </c>
       <c r="G21">
-        <v>51.12559423692515</v>
+        <v>51.12559423692472</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.69063292702396</v>
+        <v>23.6906329270239</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>98.63848012221938</v>
+        <v>98.63848012221908</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.65728691616901</v>
+        <v>35.65728691616894</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>11.06480544846394</v>
       </c>
       <c r="E22">
-        <v>36.85538711744364</v>
+        <v>36.85538711744346</v>
       </c>
       <c r="F22">
-        <v>67.40959684878815</v>
+        <v>67.40959684878769</v>
       </c>
       <c r="G22">
-        <v>55.51764760329323</v>
+        <v>55.5176476032929</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.00211693313122</v>
+        <v>25.00211693313108</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>104.0014096878566</v>
+        <v>104.0014096878562</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.71655408884823</v>
+        <v>34.71655408884814</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.65699599917585</v>
+        <v>10.65699599917579</v>
       </c>
       <c r="E23">
         <v>35.88527415619349</v>
       </c>
       <c r="F23">
-        <v>64.42490149940929</v>
+        <v>64.42490149940885</v>
       </c>
       <c r="G23">
-        <v>53.10172993292295</v>
+        <v>53.10172993292264</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.2900957912004</v>
+        <v>24.29009579120039</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.33708615730093</v>
+        <v>31.33708615730099</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.307226378806289</v>
+        <v>9.307226378806206</v>
       </c>
       <c r="E24">
         <v>32.41236046919825</v>
       </c>
       <c r="F24">
-        <v>54.65295324719738</v>
+        <v>54.65295324719754</v>
       </c>
       <c r="G24">
-        <v>45.17300109534158</v>
+        <v>45.17300109534169</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.78922485901075</v>
+        <v>21.78922485901074</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>90.83627869796483</v>
+        <v>90.83627869796487</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.79288066041389</v>
+        <v>27.7928806604139</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.034482909244895</v>
+        <v>8.034482909244929</v>
       </c>
       <c r="E25">
-        <v>28.78303042020778</v>
+        <v>28.78303042020793</v>
       </c>
       <c r="F25">
-        <v>45.6750879282099</v>
+        <v>45.6750879282098</v>
       </c>
       <c r="G25">
-        <v>37.84797305780008</v>
+        <v>37.84797305780002</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.23725780292189</v>
+        <v>19.23725780292199</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>80.31459666285359</v>
+        <v>80.3145966628538</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.13054099466554</v>
+        <v>25.13054099466551</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.148601758432383</v>
+        <v>7.148601758432256</v>
       </c>
       <c r="E2">
-        <v>26.06047649626242</v>
+        <v>26.06047649626225</v>
       </c>
       <c r="F2">
-        <v>39.62680952503229</v>
+        <v>39.62680952503241</v>
       </c>
       <c r="G2">
-        <v>32.87637577200543</v>
+        <v>32.87637577200549</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.35320311991343</v>
+        <v>17.35320311991327</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>72.51479573304539</v>
+        <v>72.51479573304513</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.2569950301501</v>
+        <v>23.25699503015016</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.554252721595775</v>
+        <v>6.554252721595824</v>
       </c>
       <c r="E3">
-        <v>24.14487820306825</v>
+        <v>24.14487820306823</v>
       </c>
       <c r="F3">
-        <v>35.69194141358581</v>
+        <v>35.69194141358577</v>
       </c>
       <c r="G3">
-        <v>29.6171329718309</v>
+        <v>29.61713297183088</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.0396469054437</v>
+        <v>16.03964690544367</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.06457906365042</v>
+        <v>22.06457906365048</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.186967335500098</v>
+        <v>6.186967335500131</v>
       </c>
       <c r="E4">
-        <v>22.92547592504479</v>
+        <v>22.92547592504483</v>
       </c>
       <c r="F4">
-        <v>33.32086872519447</v>
+        <v>33.32086872519455</v>
       </c>
       <c r="G4">
-        <v>27.63994297562516</v>
+        <v>27.63994297562525</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.20779214649263</v>
+        <v>15.20779214649267</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>63.60776486729809</v>
+        <v>63.6077648672982</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.56716541977211</v>
+        <v>21.56716541977206</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.036107710214713</v>
+        <v>6.036107710214683</v>
       </c>
       <c r="E5">
-        <v>22.41671453831006</v>
+        <v>22.41671453831016</v>
       </c>
       <c r="F5">
-        <v>32.36224874620203</v>
+        <v>32.36224874620219</v>
       </c>
       <c r="G5">
-        <v>26.83704195549415</v>
+        <v>26.83704195549429</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.8615997488586</v>
+        <v>14.86159974885867</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>62.16854790671999</v>
+        <v>62.16854790672019</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.48385237418171</v>
+        <v>21.48385237418172</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.010970917753614</v>
+        <v>6.010970917753656</v>
       </c>
       <c r="E6">
-        <v>22.33149471115594</v>
+        <v>22.33149471115591</v>
       </c>
       <c r="F6">
-        <v>32.20344525315423</v>
+        <v>32.20344525315414</v>
       </c>
       <c r="G6">
-        <v>26.7038146760318</v>
+        <v>26.70381467603174</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.80365820232857</v>
+        <v>14.80365820232853</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>61.92762570511133</v>
+        <v>61.92762570511117</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.0579184000072</v>
+        <v>22.05791840000724</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.184938289815867</v>
+        <v>6.184938289815952</v>
       </c>
       <c r="E7">
-        <v>22.91866370351165</v>
+        <v>22.91866370351168</v>
       </c>
       <c r="F7">
-        <v>33.30791361919698</v>
+        <v>33.30791361919713</v>
       </c>
       <c r="G7">
-        <v>27.62910692575544</v>
+        <v>27.62910692575558</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>63.58848349290896</v>
+        <v>63.58848349290904</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.49265462108875</v>
+        <v>24.49265462108887</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.943752193678248</v>
+        <v>6.943752193678137</v>
       </c>
       <c r="E8">
-        <v>25.40829156917084</v>
+        <v>25.40829156917111</v>
       </c>
       <c r="F8">
-        <v>38.25809763621123</v>
+        <v>38.258097636211</v>
       </c>
       <c r="G8">
-        <v>31.74535170293228</v>
+        <v>31.74535170293207</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.90498434020413</v>
+        <v>16.90498434020434</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>70.6558959389309</v>
+        <v>70.65589593893134</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.98857487010696</v>
+        <v>28.98857487010689</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.450573444931063</v>
+        <v>8.450573444931056</v>
       </c>
       <c r="E9">
-        <v>30.00651551195017</v>
+        <v>30.00651551195012</v>
       </c>
       <c r="F9">
-        <v>48.57778164941616</v>
+        <v>48.57778164941614</v>
       </c>
       <c r="G9">
         <v>40.22204978811956</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.09176336494878</v>
+        <v>20.09176336494875</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>83.84370411505103</v>
+        <v>83.84370411505088</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.23622726266527</v>
+        <v>32.23622726266523</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.651192564479734</v>
+        <v>9.651192564479585</v>
       </c>
       <c r="E10">
-        <v>33.33483333153939</v>
+        <v>33.33483333153922</v>
       </c>
       <c r="F10">
-        <v>57.12354439815903</v>
+        <v>57.12354439815909</v>
       </c>
       <c r="G10">
-        <v>47.18096006554484</v>
+        <v>47.18096006554485</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.44703826325189</v>
+        <v>22.44703826325176</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>93.53925546010977</v>
+        <v>93.53925546010939</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.74859908943469</v>
+        <v>33.74859908943472</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.25351526306885</v>
+        <v>10.25351526306891</v>
       </c>
       <c r="E11">
-        <v>34.88880910174556</v>
+        <v>34.88880910174563</v>
       </c>
       <c r="F11">
-        <v>61.48406810252452</v>
+        <v>61.48406810252474</v>
       </c>
       <c r="G11">
-        <v>50.71904951998685</v>
+        <v>50.71904951998706</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.56538086671866</v>
+        <v>23.5653808667187</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>98.12552977187963</v>
+        <v>98.12552977187981</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.49560783689619</v>
+        <v>10.49560783689611</v>
       </c>
       <c r="E12">
-        <v>35.4910349687437</v>
+        <v>35.49103496874381</v>
       </c>
       <c r="F12">
-        <v>63.2469610420932</v>
+        <v>63.24696104209369</v>
       </c>
       <c r="G12">
-        <v>52.14765102731081</v>
+        <v>52.14765102731121</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.00260632765279</v>
+        <v>24.00260632765287</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>99.91551711370423</v>
+        <v>99.9155171137046</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.20701947727</v>
+        <v>34.20701947727021</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.44269977375246</v>
+        <v>10.44269977375251</v>
       </c>
       <c r="E13">
-        <v>35.36052911325675</v>
+        <v>35.36052911325688</v>
       </c>
       <c r="F13">
-        <v>62.8612529576531</v>
+        <v>62.86125295765333</v>
       </c>
       <c r="G13">
-        <v>51.8351615574481</v>
+        <v>51.83516155744829</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.90766247809308</v>
+        <v>23.90766247809315</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>99.52696256744029</v>
+        <v>99.52696256744056</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.79643026586906</v>
+        <v>33.79643026586898</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.2731011689927</v>
+        <v>10.27310116899267</v>
       </c>
       <c r="E14">
-        <v>34.93801169134594</v>
+        <v>34.93801169134586</v>
       </c>
       <c r="F14">
-        <v>61.62649425729101</v>
+        <v>61.62649425729094</v>
       </c>
       <c r="G14">
-        <v>50.83450271566004</v>
+        <v>50.83450271565998</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.60101803072176</v>
+        <v>23.60101803072168</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>98.2714904459408</v>
+        <v>98.27149044594066</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.54686892997852</v>
+        <v>33.54686892997842</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.17129289148689</v>
+        <v>10.17129289148679</v>
       </c>
       <c r="E15">
-        <v>34.6813352047717</v>
+        <v>34.68133520477147</v>
       </c>
       <c r="F15">
-        <v>60.88655726761441</v>
+        <v>60.8865572676139</v>
       </c>
       <c r="G15">
-        <v>50.23462642219682</v>
+        <v>50.23462642219641</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.4152696853395</v>
+        <v>23.41526968533931</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>97.51058827589934</v>
+        <v>97.51058827589868</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.13862493226761</v>
+        <v>32.13862493226758</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.613376712105994</v>
+        <v>9.613376712106097</v>
       </c>
       <c r="E16">
-        <v>33.2346526063931</v>
+        <v>33.23465260639306</v>
       </c>
       <c r="F16">
-        <v>56.85116807646037</v>
+        <v>56.85116807646029</v>
       </c>
       <c r="G16">
-        <v>46.95971760721653</v>
+        <v>46.95971760721649</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.37539308395091</v>
+        <v>22.37539308395086</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>93.24505371575931</v>
+        <v>93.24505371575924</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.28763300129119</v>
+        <v>31.28763300129125</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.288585887695399</v>
+        <v>9.288585887695437</v>
       </c>
       <c r="E17">
-        <v>32.361649990442</v>
+        <v>32.36164999044202</v>
       </c>
       <c r="F17">
-        <v>54.51952638363296</v>
+        <v>54.51952638363326</v>
       </c>
       <c r="G17">
-        <v>45.06448018511384</v>
+        <v>45.06448018511408</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.7531835864711</v>
+        <v>21.75318358647107</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>90.68807095751764</v>
+        <v>90.68807095751768</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.80084720699034</v>
+        <v>30.80084720699032</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.106567967621888</v>
+        <v>9.106567967621714</v>
       </c>
       <c r="E18">
-        <v>31.86261869287794</v>
+        <v>31.86261869287793</v>
       </c>
       <c r="F18">
-        <v>53.21932552756215</v>
+        <v>53.21932552756245</v>
       </c>
       <c r="G18">
-        <v>44.00652139508147</v>
+        <v>44.00652139508168</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.3991463824579</v>
+        <v>21.39914638245784</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.63633345489047</v>
+        <v>30.63633345489057</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.045641042189324</v>
+        <v>9.045641042189336</v>
       </c>
       <c r="E19">
-        <v>31.69401752777757</v>
+        <v>31.6940175277778</v>
       </c>
       <c r="F19">
-        <v>52.7852235952293</v>
+        <v>52.78522359522955</v>
       </c>
       <c r="G19">
-        <v>43.65310530408822</v>
+        <v>43.65310530408842</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.27978813603828</v>
+        <v>21.27978813603849</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>88.74031403510006</v>
+        <v>88.74031403510051</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.37790558237396</v>
+        <v>31.37790558237388</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.322633679580381</v>
+        <v>9.322633679580507</v>
       </c>
       <c r="E20">
-        <v>32.4542196302036</v>
+        <v>32.45421963020355</v>
       </c>
       <c r="F20">
-        <v>54.76327454031129</v>
+        <v>54.76327454031124</v>
       </c>
       <c r="G20">
         <v>45.26272300017222</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>90.95864628731319</v>
+        <v>90.95864628731313</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.91660490088959</v>
+        <v>33.91660490088966</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.32246598486589</v>
+        <v>10.32246598486596</v>
       </c>
       <c r="E21">
-        <v>35.06164843056565</v>
+        <v>35.06164843056576</v>
       </c>
       <c r="F21">
-        <v>61.98562698514144</v>
+        <v>61.98562698514201</v>
       </c>
       <c r="G21">
-        <v>51.12559423692472</v>
+        <v>51.12559423692515</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.6906329270239</v>
+        <v>23.69063292702396</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>98.63848012221908</v>
+        <v>98.63848012221938</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.65728691616894</v>
+        <v>35.65728691616901</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>11.06480544846394</v>
       </c>
       <c r="E22">
-        <v>36.85538711744346</v>
+        <v>36.85538711744364</v>
       </c>
       <c r="F22">
-        <v>67.40959684878769</v>
+        <v>67.40959684878815</v>
       </c>
       <c r="G22">
-        <v>55.5176476032929</v>
+        <v>55.51764760329323</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.00211693313108</v>
+        <v>25.00211693313122</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>104.0014096878562</v>
+        <v>104.0014096878566</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.71655408884814</v>
+        <v>34.71655408884823</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.65699599917579</v>
+        <v>10.65699599917585</v>
       </c>
       <c r="E23">
         <v>35.88527415619349</v>
       </c>
       <c r="F23">
-        <v>64.42490149940885</v>
+        <v>64.42490149940929</v>
       </c>
       <c r="G23">
-        <v>53.10172993292264</v>
+        <v>53.10172993292295</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.29009579120039</v>
+        <v>24.2900957912004</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.33708615730099</v>
+        <v>31.33708615730093</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.307226378806206</v>
+        <v>9.307226378806289</v>
       </c>
       <c r="E24">
         <v>32.41236046919825</v>
       </c>
       <c r="F24">
-        <v>54.65295324719754</v>
+        <v>54.65295324719738</v>
       </c>
       <c r="G24">
-        <v>45.17300109534169</v>
+        <v>45.17300109534158</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.78922485901074</v>
+        <v>21.78922485901075</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>90.83627869796487</v>
+        <v>90.83627869796483</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.7928806604139</v>
+        <v>27.79288066041389</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.034482909244929</v>
+        <v>8.034482909244895</v>
       </c>
       <c r="E25">
-        <v>28.78303042020793</v>
+        <v>28.78303042020778</v>
       </c>
       <c r="F25">
-        <v>45.6750879282098</v>
+        <v>45.6750879282099</v>
       </c>
       <c r="G25">
-        <v>37.84797305780002</v>
+        <v>37.84797305780008</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.23725780292199</v>
+        <v>19.23725780292189</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>80.3145966628538</v>
+        <v>80.31459666285359</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.13054099466551</v>
+        <v>25.12911023957117</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.148601758432256</v>
+        <v>7.137672637072483</v>
       </c>
       <c r="E2">
-        <v>26.06047649626225</v>
+        <v>26.0572618346234</v>
       </c>
       <c r="F2">
-        <v>39.62680952503241</v>
+        <v>39.58018360505069</v>
       </c>
       <c r="G2">
-        <v>32.87637577200549</v>
+        <v>32.91590904171317</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>32.26446541092181</v>
       </c>
       <c r="I2">
-        <v>17.35320311991327</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>17.35516286530378</v>
       </c>
       <c r="K2">
-        <v>72.51479573304513</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>72.50882220127073</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.25699503015016</v>
+        <v>23.25594074436011</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.554252721595824</v>
+        <v>6.544607030738173</v>
       </c>
       <c r="E3">
-        <v>24.14487820306823</v>
+        <v>24.14202805890202</v>
       </c>
       <c r="F3">
-        <v>35.69194141358577</v>
+        <v>35.65074559216171</v>
       </c>
       <c r="G3">
-        <v>29.61713297183088</v>
+        <v>29.65348290132291</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>29.09441184732453</v>
       </c>
       <c r="I3">
-        <v>16.03964690544367</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>16.04158290577731</v>
       </c>
       <c r="K3">
-        <v>67.0640101711551</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>67.05951746459876</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.06457906365048</v>
+        <v>22.06372124690991</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.186967335500131</v>
+        <v>6.178085336096207</v>
       </c>
       <c r="E4">
-        <v>22.92547592504483</v>
+        <v>22.92283006050076</v>
       </c>
       <c r="F4">
-        <v>33.32086872519455</v>
+        <v>33.28278997139099</v>
       </c>
       <c r="G4">
-        <v>27.63994297562525</v>
+        <v>27.67423959851852</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>27.18273594180565</v>
       </c>
       <c r="I4">
-        <v>15.20779214649267</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>15.20968896765777</v>
       </c>
       <c r="K4">
-        <v>63.6077648672982</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>63.60404949810765</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.56716541977206</v>
+        <v>21.56638113092104</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.036107710214683</v>
+        <v>6.027533872957602</v>
       </c>
       <c r="E5">
-        <v>22.41671453831016</v>
+        <v>22.41414894975266</v>
       </c>
       <c r="F5">
-        <v>32.36224874620219</v>
+        <v>32.32540212121283</v>
       </c>
       <c r="G5">
-        <v>26.83704195549429</v>
+        <v>26.8704831387932</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>26.40947461968065</v>
       </c>
       <c r="I5">
-        <v>14.86159974885867</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>14.86347579827324</v>
       </c>
       <c r="K5">
-        <v>62.16854790672019</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>62.1651247741111</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.48385237418172</v>
+        <v>21.48307995118611</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.010970917753656</v>
+        <v>6.002448141401992</v>
       </c>
       <c r="E6">
-        <v>22.33149471115591</v>
+        <v>22.32894231895608</v>
       </c>
       <c r="F6">
-        <v>32.20344525315414</v>
+        <v>32.1668013074166</v>
       </c>
       <c r="G6">
-        <v>26.70381467603174</v>
+        <v>26.73711282973256</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>26.28135443237655</v>
       </c>
       <c r="I6">
-        <v>14.80365820232853</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>14.80553054391669</v>
       </c>
       <c r="K6">
-        <v>61.92762570511117</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>61.92424981981489</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.05791840000724</v>
+        <v>22.05706159895463</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.184938289815952</v>
+        <v>6.176060455260965</v>
       </c>
       <c r="E7">
-        <v>22.91866370351168</v>
+        <v>22.9160189314811</v>
       </c>
       <c r="F7">
-        <v>33.30791361919713</v>
+        <v>33.26985161854019</v>
       </c>
       <c r="G7">
-        <v>27.62910692575558</v>
+        <v>27.66339208086934</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>27.1722873663567</v>
       </c>
       <c r="I7">
-        <v>15.20315343399235</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>15.20504999300274</v>
       </c>
       <c r="K7">
-        <v>63.58848349290904</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>63.58477215477395</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.49265462108887</v>
+        <v>24.49136243724554</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.943752193678137</v>
+        <v>6.933272793517328</v>
       </c>
       <c r="E8">
-        <v>25.40829156917111</v>
+        <v>25.40520803518772</v>
       </c>
       <c r="F8">
-        <v>38.258097636211</v>
+        <v>38.21340083607436</v>
       </c>
       <c r="G8">
-        <v>31.74535170293207</v>
+        <v>31.78381225236287</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>31.16209399516379</v>
       </c>
       <c r="I8">
-        <v>16.90498434020434</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>16.90694201017767</v>
       </c>
       <c r="K8">
-        <v>70.65589593893134</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>70.65046653279849</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.98857487010689</v>
+        <v>28.98599407469292</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.450573444931056</v>
+        <v>8.436550856219197</v>
       </c>
       <c r="E9">
-        <v>30.00651551195012</v>
+        <v>30.00227428073612</v>
       </c>
       <c r="F9">
-        <v>48.57778164941614</v>
+        <v>48.51716111011589</v>
       </c>
       <c r="G9">
-        <v>40.22204978811956</v>
+        <v>40.26744481052102</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>39.46736871044747</v>
       </c>
       <c r="I9">
-        <v>20.09176336494875</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>20.09353931724367</v>
       </c>
       <c r="K9">
-        <v>83.84370411505088</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>83.83323280409374</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.23622726266523</v>
+        <v>32.23199958401012</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.651192564479585</v>
+        <v>9.633789798791147</v>
       </c>
       <c r="E10">
-        <v>33.33483333153922</v>
+        <v>33.32916347869158</v>
       </c>
       <c r="F10">
-        <v>57.12354439815909</v>
+        <v>57.04626982646563</v>
       </c>
       <c r="G10">
-        <v>47.18096006554485</v>
+        <v>47.22924519416681</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>46.336633894377</v>
       </c>
       <c r="I10">
-        <v>22.44703826325176</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>22.44818678793733</v>
       </c>
       <c r="K10">
-        <v>93.53925546010939</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>93.5223581932581</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.74859908943472</v>
+        <v>33.7432181247666</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.25351526306891</v>
+        <v>10.23411816377012</v>
       </c>
       <c r="E11">
-        <v>34.88880910174563</v>
+        <v>34.8821265841181</v>
       </c>
       <c r="F11">
-        <v>61.48406810252474</v>
+        <v>61.39634585207544</v>
       </c>
       <c r="G11">
-        <v>50.71904951998706</v>
+        <v>50.76722073120212</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>49.83951247499073</v>
       </c>
       <c r="I11">
-        <v>23.5653808667187</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>23.56594468092565</v>
       </c>
       <c r="K11">
-        <v>98.12552977187981</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>98.10413311482067</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.33378452009465</v>
+        <v>34.32785522424734</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.49560783689611</v>
+        <v>10.47533134926886</v>
       </c>
       <c r="E12">
-        <v>35.49103496874381</v>
+        <v>35.48386526943973</v>
       </c>
       <c r="F12">
-        <v>63.24696104209369</v>
+        <v>63.1544954774392</v>
       </c>
       <c r="G12">
-        <v>52.14765102731121</v>
+        <v>52.19535403585516</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>51.25527406689569</v>
       </c>
       <c r="I12">
-        <v>24.00260632765287</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>24.0028631174343</v>
       </c>
       <c r="K12">
-        <v>99.9155171137046</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>99.89198086838663</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.20701947727021</v>
+        <v>34.20121476948503</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.44269977375251</v>
+        <v>10.42261984094235</v>
       </c>
       <c r="E13">
-        <v>35.36052911325688</v>
+        <v>35.3534704424572</v>
       </c>
       <c r="F13">
-        <v>62.86125295765333</v>
+        <v>62.76985456154702</v>
       </c>
       <c r="G13">
-        <v>51.83516155744829</v>
+        <v>51.88299085467825</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>50.94553577135636</v>
       </c>
       <c r="I13">
-        <v>23.90766247809315</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>23.90799044305679</v>
       </c>
       <c r="K13">
-        <v>99.52696256744056</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>99.50391248904418</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.79643026586898</v>
+        <v>33.79100694693325</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.27310116899267</v>
+        <v>10.25363476917173</v>
       </c>
       <c r="E14">
-        <v>34.93801169134586</v>
+        <v>34.93129167822764</v>
       </c>
       <c r="F14">
-        <v>61.62649425729094</v>
+        <v>61.53840115344165</v>
       </c>
       <c r="G14">
-        <v>50.83450271565998</v>
+        <v>50.88264614306495</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>49.95390210657193</v>
       </c>
       <c r="I14">
-        <v>23.60101803072168</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>23.60155872366277</v>
       </c>
       <c r="K14">
-        <v>98.27149044594066</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>98.24992853209719</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.54686892997842</v>
+        <v>33.54166213295711</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.17129289148679</v>
+        <v>10.15218337892633</v>
       </c>
       <c r="E15">
-        <v>34.68133520477147</v>
+        <v>34.6748066384086</v>
       </c>
       <c r="F15">
-        <v>60.8865572676139</v>
+        <v>60.80036852500245</v>
       </c>
       <c r="G15">
-        <v>50.23462642219641</v>
+        <v>50.28289606881629</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>49.35960505079445</v>
       </c>
       <c r="I15">
-        <v>23.41526968533931</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>23.41592746369984</v>
       </c>
       <c r="K15">
-        <v>97.51058827589868</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>97.48987116601511</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.13862493226758</v>
+        <v>32.13446102723815</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.613376712106097</v>
+        <v>9.596091252444658</v>
       </c>
       <c r="E16">
-        <v>33.23465260639306</v>
+        <v>33.2290383200764</v>
       </c>
       <c r="F16">
-        <v>56.85116807646029</v>
+        <v>56.77449413394895</v>
       </c>
       <c r="G16">
-        <v>46.95971760721649</v>
+        <v>47.00796757515355</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>46.1177829816902</v>
       </c>
       <c r="I16">
-        <v>22.37539308395086</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>22.37657107791215</v>
       </c>
       <c r="K16">
-        <v>93.24505371575924</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>93.22840523653176</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.28763300129125</v>
+        <v>31.2839809405138</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.288585887695437</v>
+        <v>9.272275164092644</v>
       </c>
       <c r="E17">
-        <v>32.36164999044202</v>
+        <v>32.35648040837287</v>
       </c>
       <c r="F17">
-        <v>54.51952638363326</v>
+        <v>54.44778150027457</v>
       </c>
       <c r="G17">
-        <v>45.06448018511408</v>
+        <v>45.11225604721579</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>44.24410685904402</v>
       </c>
       <c r="I17">
-        <v>21.75318358647107</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>21.75458503505617</v>
       </c>
       <c r="K17">
-        <v>90.68807095751768</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>90.67341925928405</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.80084720699032</v>
+        <v>30.79745612157888</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.106567967621714</v>
+        <v>9.090779916032666</v>
       </c>
       <c r="E18">
-        <v>31.86261869287793</v>
+        <v>31.85767520424048</v>
       </c>
       <c r="F18">
-        <v>53.21932552756245</v>
+        <v>53.15017758676923</v>
       </c>
       <c r="G18">
-        <v>44.00652139508168</v>
+        <v>44.05390923301711</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>43.19909704692731</v>
       </c>
       <c r="I18">
-        <v>21.39914638245784</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>21.40065187673797</v>
       </c>
       <c r="K18">
-        <v>89.23159377558444</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>89.21796024558458</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.63633345489057</v>
+        <v>30.63302591653445</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.045641042189336</v>
+        <v>9.030024478700351</v>
       </c>
       <c r="E19">
-        <v>31.6940175277778</v>
+        <v>31.68914636923355</v>
       </c>
       <c r="F19">
-        <v>52.78522359522955</v>
+        <v>52.71692059271468</v>
       </c>
       <c r="G19">
-        <v>43.65310530408842</v>
+        <v>43.70034554381562</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>42.85016576481914</v>
       </c>
       <c r="I19">
-        <v>21.27978813603849</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>21.28132536955405</v>
       </c>
       <c r="K19">
-        <v>88.74031403510051</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>88.72700647377344</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.37790558237388</v>
+        <v>31.37420273182185</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.322633679580507</v>
+        <v>9.306223389873979</v>
       </c>
       <c r="E20">
-        <v>32.45421963020355</v>
+        <v>32.44900600708026</v>
       </c>
       <c r="F20">
-        <v>54.76327454031124</v>
+        <v>54.69103127503312</v>
       </c>
       <c r="G20">
-        <v>45.26272300017222</v>
+        <v>45.31056219618797</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>44.43999937681338</v>
       </c>
       <c r="I20">
-        <v>21.81898444226757</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>21.82036482164775</v>
       </c>
       <c r="K20">
-        <v>90.95864628731313</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>90.94379644555298</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.91660490088966</v>
+        <v>33.91107331219633</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.32246598486596</v>
+        <v>10.30282352310397</v>
       </c>
       <c r="E21">
-        <v>35.06164843056576</v>
+        <v>35.05483246538899</v>
       </c>
       <c r="F21">
-        <v>61.98562698514201</v>
+        <v>61.89658941906533</v>
       </c>
       <c r="G21">
-        <v>51.12559423692515</v>
+        <v>51.17366001765491</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>50.24233304231453</v>
       </c>
       <c r="I21">
-        <v>23.69063292702396</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>23.69111404744035</v>
       </c>
       <c r="K21">
-        <v>98.63848012221938</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>98.6164957572165</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.65728691616901</v>
+        <v>35.64982089584136</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.06480544846394</v>
+        <v>11.04223351828604</v>
       </c>
       <c r="E22">
-        <v>36.85538711744364</v>
+        <v>36.84683206965079</v>
       </c>
       <c r="F22">
-        <v>67.40959684878815</v>
+        <v>67.30438644161424</v>
       </c>
       <c r="G22">
-        <v>55.51764760329323</v>
+        <v>55.56299103606663</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>54.59727137328007</v>
       </c>
       <c r="I22">
-        <v>25.00211693313122</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>25.00143791165704</v>
       </c>
       <c r="K22">
-        <v>104.0014096878566</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>103.971875566797</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.71655408884823</v>
+        <v>34.7102270684495</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.65699599917585</v>
+        <v>10.63610367726787</v>
       </c>
       <c r="E23">
-        <v>35.88527415619349</v>
+        <v>35.87774870559082</v>
       </c>
       <c r="F23">
-        <v>64.42490149940929</v>
+        <v>64.32906695348433</v>
       </c>
       <c r="G23">
-        <v>53.10172993292295</v>
+        <v>53.1489580426025</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>52.20113417631341</v>
       </c>
       <c r="I23">
-        <v>24.2900957912004</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>24.29012022780621</v>
       </c>
       <c r="K23">
-        <v>101.0915854032709</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>101.0664970582136</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.33708615730093</v>
+        <v>31.33340636946013</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.307226378806289</v>
+        <v>9.29086121703844</v>
       </c>
       <c r="E24">
-        <v>32.41236046919825</v>
+        <v>32.40716684624677</v>
       </c>
       <c r="F24">
-        <v>54.65295324719738</v>
+        <v>54.58093601668777</v>
       </c>
       <c r="G24">
-        <v>45.17300109534158</v>
+        <v>45.22081200562901</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>44.35133829979973</v>
       </c>
       <c r="I24">
-        <v>21.78922485901075</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>21.79061483746599</v>
       </c>
       <c r="K24">
-        <v>90.83627869796483</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>90.82151882933776</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.79288066041389</v>
+        <v>27.79072479147498</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.034482909244895</v>
+        <v>8.021499837573245</v>
       </c>
       <c r="E25">
-        <v>28.78303042020778</v>
+        <v>28.77916091570043</v>
       </c>
       <c r="F25">
-        <v>45.6750879282099</v>
+        <v>45.61930759909757</v>
       </c>
       <c r="G25">
-        <v>37.84797305780008</v>
+        <v>37.891717535857</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>37.13259582447888</v>
       </c>
       <c r="I25">
-        <v>19.23725780292189</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>19.23913556941192</v>
       </c>
       <c r="K25">
-        <v>80.31459666285359</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>80.30578500267409</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.12911023957117</v>
+        <v>25.954435387681</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.137672637072483</v>
+        <v>14.66195468585099</v>
       </c>
       <c r="E2">
-        <v>26.0572618346234</v>
+        <v>19.78852687599253</v>
       </c>
       <c r="F2">
-        <v>39.58018360505069</v>
+        <v>57.77390985678582</v>
       </c>
       <c r="G2">
-        <v>32.91590904171317</v>
+        <v>2.038773792672329</v>
       </c>
       <c r="H2">
-        <v>32.26446541092181</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17.35516286530378</v>
+        <v>9.762430010871508</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>72.50882220127073</v>
+        <v>19.00848723596091</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>13.0517633567616</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.25594074436011</v>
+        <v>24.39545845321473</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.544607030738173</v>
+        <v>13.48068208358516</v>
       </c>
       <c r="E3">
-        <v>24.14202805890202</v>
+        <v>18.29352119918411</v>
       </c>
       <c r="F3">
-        <v>35.65074559216171</v>
+        <v>54.70467200687546</v>
       </c>
       <c r="G3">
-        <v>29.65348290132291</v>
+        <v>2.064303071958168</v>
       </c>
       <c r="H3">
-        <v>29.09441184732453</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>16.04158290577731</v>
+        <v>9.223966512322189</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>67.05951746459876</v>
+        <v>17.75232517048903</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>13.46748283873117</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.06372124690991</v>
+        <v>23.42575327797108</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.178085336096207</v>
+        <v>12.73595373447715</v>
       </c>
       <c r="E4">
-        <v>22.92283006050076</v>
+        <v>17.34861556731023</v>
       </c>
       <c r="F4">
-        <v>33.28278997139099</v>
+        <v>52.86349071447965</v>
       </c>
       <c r="G4">
-        <v>27.67423959851852</v>
+        <v>2.079958411565773</v>
       </c>
       <c r="H4">
-        <v>27.18273594180565</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.20968896765777</v>
+        <v>8.888029168637246</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>63.60404949810765</v>
+        <v>17.0003833161122</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>13.7212041825391</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.56638113092104</v>
+        <v>23.02734177530879</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.027533872957602</v>
+        <v>12.42695584235118</v>
       </c>
       <c r="E5">
-        <v>22.41414894975266</v>
+        <v>16.95603782067129</v>
       </c>
       <c r="F5">
-        <v>32.32540212121283</v>
+        <v>52.12316418031991</v>
       </c>
       <c r="G5">
-        <v>26.8704831387932</v>
+        <v>2.08635377124247</v>
       </c>
       <c r="H5">
-        <v>26.40947461968065</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14.86347579827324</v>
+        <v>8.749596944040475</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>62.1651247741111</v>
+        <v>16.69147529896939</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>13.82448767427282</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.48307995118611</v>
+        <v>22.9609898260773</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.002448141401992</v>
+        <v>12.37529743785825</v>
       </c>
       <c r="E6">
-        <v>22.32894231895608</v>
+        <v>16.89037716518056</v>
       </c>
       <c r="F6">
-        <v>32.1668013074166</v>
+        <v>52.00081619505566</v>
       </c>
       <c r="G6">
-        <v>26.73711282973256</v>
+        <v>2.087417201704162</v>
       </c>
       <c r="H6">
-        <v>26.28135443237655</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14.80553054391669</v>
+        <v>8.726513056782109</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>61.92424981981489</v>
+        <v>16.64002787465709</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>13.84163843086022</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.05706159895463</v>
+        <v>23.4203933303899</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.176060455260965</v>
+        <v>12.73180956770407</v>
       </c>
       <c r="E7">
-        <v>22.9160189314811</v>
+        <v>17.34335246182934</v>
       </c>
       <c r="F7">
-        <v>33.26985161854019</v>
+        <v>52.85346697514701</v>
       </c>
       <c r="G7">
-        <v>27.66339208086934</v>
+        <v>2.080044573353838</v>
       </c>
       <c r="H7">
-        <v>27.1722873663567</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.20504999300274</v>
+        <v>8.886168654843438</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>63.58477215477395</v>
+        <v>16.99622751109363</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>13.72259721208452</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.49136243724554</v>
+        <v>25.41936825736337</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.933272793517328</v>
+        <v>14.25826629150761</v>
       </c>
       <c r="E8">
-        <v>25.40520803518772</v>
+        <v>19.27815511399425</v>
       </c>
       <c r="F8">
-        <v>38.21340083607436</v>
+        <v>56.7059404795319</v>
       </c>
       <c r="G8">
-        <v>31.78381225236287</v>
+        <v>2.047594002721188</v>
       </c>
       <c r="H8">
-        <v>31.16209399516379</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16.90694201017767</v>
+        <v>9.577731873886995</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>70.65046653279849</v>
+        <v>18.54677605473559</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>13.19560150277356</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.98599407469292</v>
+        <v>29.33432780687589</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.436550856219197</v>
+        <v>17.1336019806504</v>
       </c>
       <c r="E9">
-        <v>30.00227428073612</v>
+        <v>22.9010066912083</v>
       </c>
       <c r="F9">
-        <v>48.51716111011589</v>
+        <v>64.67566068763186</v>
       </c>
       <c r="G9">
-        <v>40.26744481052102</v>
+        <v>1.982624248337063</v>
       </c>
       <c r="H9">
-        <v>39.46736871044747</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>20.09353931724367</v>
+        <v>10.9047975277244</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>83.83323280409374</v>
+        <v>22.03075165075358</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>12.1346572462635</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.23199958401012</v>
+        <v>32.44384515024</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.633789798791147</v>
+        <v>19.24225054742867</v>
       </c>
       <c r="E10">
-        <v>33.32916347869158</v>
+        <v>25.53944171044486</v>
       </c>
       <c r="F10">
-        <v>57.04626982646563</v>
+        <v>70.98031878212403</v>
       </c>
       <c r="G10">
-        <v>47.22924519416681</v>
+        <v>1.931857632550425</v>
       </c>
       <c r="H10">
-        <v>46.336633894377</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22.44818678793733</v>
+        <v>11.88952475342893</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>93.5223581932581</v>
+        <v>24.56222599183263</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>11.31037673297211</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.7432181247666</v>
+        <v>33.86527358782179</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.23411816377012</v>
+        <v>20.22415533742824</v>
       </c>
       <c r="E11">
-        <v>34.8821265841181</v>
+        <v>26.76281280986094</v>
       </c>
       <c r="F11">
-        <v>61.39634585207544</v>
+        <v>74.16609546027509</v>
       </c>
       <c r="G11">
-        <v>50.76722073120212</v>
+        <v>1.907341280494242</v>
       </c>
       <c r="H11">
-        <v>49.83951247499073</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>23.56594468092565</v>
+        <v>12.34982840973642</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>98.10413311482067</v>
+        <v>25.72434210454129</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>10.91645255672111</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.32785522424734</v>
+        <v>34.40738066728407</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.47533134926886</v>
+        <v>20.60225583361345</v>
       </c>
       <c r="E12">
-        <v>35.48386526943973</v>
+        <v>27.23303009424</v>
       </c>
       <c r="F12">
-        <v>63.1544954774392</v>
+        <v>75.40168895729539</v>
       </c>
       <c r="G12">
-        <v>52.19535403585516</v>
+        <v>1.89775525883753</v>
       </c>
       <c r="H12">
-        <v>51.25527406689569</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>24.0028631174343</v>
+        <v>12.52726787482502</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>99.89198086838663</v>
+        <v>26.16880303124557</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>10.76342415923133</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.20121476948503</v>
+        <v>34.29039805070433</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.42261984094235</v>
+        <v>20.52048368971521</v>
       </c>
       <c r="E13">
-        <v>35.3534704424572</v>
+        <v>27.131375986253</v>
       </c>
       <c r="F13">
-        <v>62.76985456154702</v>
+        <v>75.13409169898523</v>
       </c>
       <c r="G13">
-        <v>51.88299085467825</v>
+        <v>1.89983523715501</v>
       </c>
       <c r="H13">
-        <v>50.94553577135636</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>23.90799044305679</v>
+        <v>12.48888537944114</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>99.50391248904418</v>
+        <v>26.07282567394319</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>10.79657598603919</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.79100694693325</v>
+        <v>33.90977520098799</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.25363476917173</v>
+        <v>20.25511419395092</v>
       </c>
       <c r="E14">
-        <v>34.93129167822764</v>
+        <v>26.80133207380791</v>
       </c>
       <c r="F14">
-        <v>61.53840115344165</v>
+        <v>74.26709593690268</v>
       </c>
       <c r="G14">
-        <v>50.88264614306495</v>
+        <v>1.906559399069339</v>
       </c>
       <c r="H14">
-        <v>49.95390210657193</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>23.60155872366277</v>
+        <v>12.36435369201274</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>98.24992853209719</v>
+        <v>25.76079923649254</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>10.90394819186134</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.54166213295711</v>
+        <v>33.67723893292364</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.15218337892633</v>
+        <v>20.0934962038291</v>
       </c>
       <c r="E15">
-        <v>34.6748066384086</v>
+        <v>26.60021031060716</v>
       </c>
       <c r="F15">
-        <v>60.80036852500245</v>
+        <v>73.74018029013332</v>
       </c>
       <c r="G15">
-        <v>50.28289606881629</v>
+        <v>1.910635184427493</v>
       </c>
       <c r="H15">
-        <v>49.35960505079445</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>23.41592746369984</v>
+        <v>12.28853302452097</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>97.48987116601511</v>
+        <v>25.57035216693376</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>10.96917339685029</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.13446102723815</v>
+        <v>32.35130764412568</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.596091252444658</v>
+        <v>19.17876743473585</v>
       </c>
       <c r="E16">
-        <v>33.2290383200764</v>
+        <v>25.4602341261825</v>
       </c>
       <c r="F16">
-        <v>56.77449413394895</v>
+        <v>70.77562517509827</v>
       </c>
       <c r="G16">
-        <v>47.00796757515355</v>
+        <v>1.933423735073804</v>
       </c>
       <c r="H16">
-        <v>46.1177829816902</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>22.37657107791215</v>
+        <v>11.85979438383011</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>93.22840523653176</v>
+        <v>24.48671130044509</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>11.33565159016837</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.2839809405138</v>
+        <v>31.54134141614179</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.272275164092644</v>
+        <v>18.62520648932212</v>
       </c>
       <c r="E17">
-        <v>32.35648040837287</v>
+        <v>24.76897050459457</v>
       </c>
       <c r="F17">
-        <v>54.44778150027457</v>
+        <v>69.0831620167416</v>
       </c>
       <c r="G17">
-        <v>45.11225604721579</v>
+        <v>1.946981391032929</v>
       </c>
       <c r="H17">
-        <v>44.24410685904402</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>21.75458503505617</v>
+        <v>11.60073618409084</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>90.67341925928405</v>
+        <v>23.82634267328703</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>11.55493438535752</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.79745612157888</v>
+        <v>31.07589624634546</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.090779916032666</v>
+        <v>18.30871328729832</v>
       </c>
       <c r="E18">
-        <v>31.85767520424048</v>
+        <v>24.37327024406947</v>
       </c>
       <c r="F18">
-        <v>53.15017758676923</v>
+        <v>68.13550648297358</v>
       </c>
       <c r="G18">
-        <v>44.05390923301711</v>
+        <v>1.954653067688027</v>
       </c>
       <c r="H18">
-        <v>43.19909704692731</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>21.40065187673797</v>
+        <v>11.45278839932498</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>89.21796024558458</v>
+        <v>23.44728527403249</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>11.67936203639944</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.63302591653445</v>
+        <v>30.91830877381082</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.030024478700351</v>
+        <v>18.20180723640279</v>
       </c>
       <c r="E19">
-        <v>31.68914636923355</v>
+        <v>24.23953059905139</v>
       </c>
       <c r="F19">
-        <v>52.71692059271468</v>
+        <v>67.81683037457819</v>
       </c>
       <c r="G19">
-        <v>43.70034554381562</v>
+        <v>1.957231248819556</v>
       </c>
       <c r="H19">
-        <v>42.85016576481914</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>21.28132536955405</v>
+        <v>11.40284458139073</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>88.72700647377344</v>
+        <v>23.3190049112744</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>11.72122766743776</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.37420273182185</v>
+        <v>31.62750262487505</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.306223389873979</v>
+        <v>18.68391926552269</v>
       </c>
       <c r="E20">
-        <v>32.44900600708026</v>
+        <v>24.84233875768871</v>
       </c>
       <c r="F20">
-        <v>54.69103127503312</v>
+        <v>69.25963683872554</v>
       </c>
       <c r="G20">
-        <v>45.31056219618797</v>
+        <v>1.945551815836712</v>
       </c>
       <c r="H20">
-        <v>44.43999937681338</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>21.82036482164775</v>
+        <v>11.62819608300844</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>90.94379644555298</v>
+        <v>23.89654316813404</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>11.53177401494769</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.91107331219633</v>
+        <v>34.02144004747931</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.30282352310397</v>
+        <v>20.33285880784107</v>
       </c>
       <c r="E21">
-        <v>35.05483246538899</v>
+        <v>26.89804845633376</v>
       </c>
       <c r="F21">
-        <v>61.89658941906533</v>
+        <v>74.52086740937762</v>
       </c>
       <c r="G21">
-        <v>51.17366001765491</v>
+        <v>1.904593539352872</v>
       </c>
       <c r="H21">
-        <v>50.24233304231453</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>23.69111404744035</v>
+        <v>12.40083274710043</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>98.6164957572165</v>
+        <v>25.85230065674172</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>10.87252628711202</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.64982089584136</v>
+        <v>35.61080577255641</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.04223351828604</v>
+        <v>21.44962194227841</v>
       </c>
       <c r="E22">
-        <v>36.84683206965079</v>
+        <v>28.28513495593537</v>
       </c>
       <c r="F22">
-        <v>67.30438644161424</v>
+        <v>78.18555363890752</v>
       </c>
       <c r="G22">
-        <v>55.56299103606663</v>
+        <v>1.875982419619953</v>
       </c>
       <c r="H22">
-        <v>54.59727137328007</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>25.00143791165704</v>
+        <v>12.925210548614</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>103.971875566797</v>
+        <v>27.15848968346862</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>10.4182882726343</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.7102270684495</v>
+        <v>34.75895180872539</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.63610367726787</v>
+        <v>20.8486269137591</v>
       </c>
       <c r="E23">
-        <v>35.87774870559082</v>
+        <v>27.5391702232477</v>
       </c>
       <c r="F23">
-        <v>64.32906695348433</v>
+        <v>76.20911317101088</v>
       </c>
       <c r="G23">
-        <v>53.1489580426025</v>
+        <v>1.891465908554541</v>
       </c>
       <c r="H23">
-        <v>52.20113417631341</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>24.29012022780621</v>
+        <v>12.6429332011991</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>101.0664970582136</v>
+        <v>26.45747768489942</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>10.6633652442864</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.33340636946013</v>
+        <v>31.58854866831142</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.29086121703844</v>
+        <v>18.65736995635226</v>
       </c>
       <c r="E24">
-        <v>32.40716684624677</v>
+        <v>24.80916387385441</v>
       </c>
       <c r="F24">
-        <v>54.58093601668777</v>
+        <v>69.17981112166314</v>
       </c>
       <c r="G24">
-        <v>45.22081200562901</v>
+        <v>1.946198502543391</v>
       </c>
       <c r="H24">
-        <v>44.35133829979973</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>21.79061483746599</v>
+        <v>11.61577847761249</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>90.82151882933776</v>
+        <v>23.86480386237359</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>11.54224985072802</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.79072479147498</v>
+        <v>28.22397261296617</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.021499837573245</v>
+        <v>16.3625150580463</v>
       </c>
       <c r="E25">
-        <v>28.77916091570043</v>
+        <v>21.93229650036829</v>
       </c>
       <c r="F25">
-        <v>45.61930759909757</v>
+        <v>62.46230091968344</v>
       </c>
       <c r="G25">
-        <v>37.891717535857</v>
+        <v>2.000534663089392</v>
       </c>
       <c r="H25">
-        <v>37.13259582447888</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>19.23913556941192</v>
+        <v>10.54664661065994</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>80.30578500267409</v>
+        <v>21.09382012440438</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>12.42708079252821</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.954435387681</v>
+        <v>12.35545984661191</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.66195468585099</v>
+        <v>6.649856585751504</v>
       </c>
       <c r="E2">
-        <v>19.78852687599253</v>
+        <v>7.173420149944593</v>
       </c>
       <c r="F2">
-        <v>57.77390985678582</v>
+        <v>69.39017331811385</v>
       </c>
       <c r="G2">
-        <v>2.038773792672329</v>
+        <v>2.190924311759789</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.762430010871508</v>
+        <v>7.850462211243441</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.94463650299341</v>
       </c>
       <c r="L2">
-        <v>19.00848723596091</v>
+        <v>5.532649452800492</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.911553447679262</v>
       </c>
       <c r="N2">
-        <v>13.0517633567616</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.39545845321473</v>
+        <v>12.0164939422506</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.48068208358516</v>
+        <v>6.294710090828605</v>
       </c>
       <c r="E3">
-        <v>18.29352119918411</v>
+        <v>7.078531975733823</v>
       </c>
       <c r="F3">
-        <v>54.70467200687546</v>
+        <v>66.55199569716996</v>
       </c>
       <c r="G3">
-        <v>2.064303071958168</v>
+        <v>2.202603197723485</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.223966512322189</v>
+        <v>7.782078343063457</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11.39850091214661</v>
       </c>
       <c r="L3">
-        <v>17.75232517048903</v>
+        <v>5.536898464029322</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.857018226839132</v>
       </c>
       <c r="N3">
-        <v>13.46748283873117</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.42575327797108</v>
+        <v>11.81530523445524</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.73595373447715</v>
+        <v>6.069385480251397</v>
       </c>
       <c r="E4">
-        <v>17.34861556731023</v>
+        <v>7.020329908311651</v>
       </c>
       <c r="F4">
-        <v>52.86349071447965</v>
+        <v>64.77949664116115</v>
       </c>
       <c r="G4">
-        <v>2.079958411565773</v>
+        <v>2.209927997914766</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.888029168637246</v>
+        <v>7.740045866882693</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.06757891395322</v>
       </c>
       <c r="L4">
-        <v>17.0003833161122</v>
+        <v>5.546483581231698</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.832257142539842</v>
       </c>
       <c r="N4">
-        <v>13.7212041825391</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.02734177530879</v>
+        <v>11.73512955805727</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.42695584235118</v>
+        <v>5.975766676680585</v>
       </c>
       <c r="E5">
-        <v>16.95603782067129</v>
+        <v>6.996592149017074</v>
       </c>
       <c r="F5">
-        <v>52.12316418031991</v>
+        <v>64.05015493995448</v>
       </c>
       <c r="G5">
-        <v>2.08635377124247</v>
+        <v>2.212954585694653</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.749596944040475</v>
+        <v>7.722883156657359</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.934000336106</v>
       </c>
       <c r="L5">
-        <v>16.69147529896939</v>
+        <v>5.552059026795751</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.82429238506942</v>
       </c>
       <c r="N5">
-        <v>13.82448767427282</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.9609898260773</v>
+        <v>11.72192773642021</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>12.37529743785825</v>
+        <v>5.960113946070643</v>
       </c>
       <c r="E6">
-        <v>16.89037716518056</v>
+        <v>6.992648348509872</v>
       </c>
       <c r="F6">
-        <v>52.00081619505566</v>
+        <v>63.92863933549221</v>
       </c>
       <c r="G6">
-        <v>2.087417201704162</v>
+        <v>2.213459747590819</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.726513056782109</v>
+        <v>7.720030605475281</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.91190207273164</v>
       </c>
       <c r="L6">
-        <v>16.64002787465709</v>
+        <v>5.553083229067455</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.823096229675945</v>
       </c>
       <c r="N6">
-        <v>13.84163843086022</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.4203933303899</v>
+        <v>11.81421653909535</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.73180956770407</v>
+        <v>6.068130131568662</v>
       </c>
       <c r="E7">
-        <v>17.34335246182934</v>
+        <v>7.020009897130645</v>
       </c>
       <c r="F7">
-        <v>52.85346697514701</v>
+        <v>64.7696882625542</v>
       </c>
       <c r="G7">
-        <v>2.080044573353838</v>
+        <v>2.209968643049586</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.886168654843438</v>
+        <v>7.73981457171972</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.06577202574821</v>
       </c>
       <c r="L7">
-        <v>16.99622751109363</v>
+        <v>5.546552124166441</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.832141210637085</v>
       </c>
       <c r="N7">
-        <v>13.72259721208452</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.41936825736337</v>
+        <v>12.23718309371532</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>14.25826629150761</v>
+        <v>6.528922414417304</v>
       </c>
       <c r="E8">
-        <v>19.27815511399425</v>
+        <v>7.140668194206073</v>
       </c>
       <c r="F8">
-        <v>56.7059404795319</v>
+        <v>68.41801250865048</v>
       </c>
       <c r="G8">
-        <v>2.047594002721188</v>
+        <v>2.194921109932781</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.577731873886995</v>
+        <v>7.826878244114178</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.75550540715025</v>
       </c>
       <c r="L8">
-        <v>18.54677605473559</v>
+        <v>5.532614714617544</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.890898110798947</v>
       </c>
       <c r="N8">
-        <v>13.19560150277356</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.33432780687589</v>
+        <v>13.11904084768619</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.1336019806504</v>
+        <v>7.374411644357775</v>
       </c>
       <c r="E9">
-        <v>22.9010066912083</v>
+        <v>7.379531986408597</v>
       </c>
       <c r="F9">
-        <v>64.67566068763186</v>
+        <v>75.32093721060068</v>
       </c>
       <c r="G9">
-        <v>1.982624248337063</v>
+        <v>2.16648625138943</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.9047975277244</v>
+        <v>7.998408926727447</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.4413444174245</v>
       </c>
       <c r="L9">
-        <v>22.03075165075358</v>
+        <v>5.564586023900178</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.07841341718885</v>
       </c>
       <c r="N9">
-        <v>12.1346572462635</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.44384515024</v>
+        <v>13.79611139570844</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>19.24225054742867</v>
+        <v>7.960602512709603</v>
       </c>
       <c r="E10">
-        <v>25.53944171044486</v>
+        <v>7.559243047682809</v>
       </c>
       <c r="F10">
-        <v>70.98031878212403</v>
+        <v>80.22893872274524</v>
       </c>
       <c r="G10">
-        <v>1.931857632550425</v>
+        <v>2.146018778926946</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.88952475342893</v>
+        <v>8.126732505143266</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.8565920561134</v>
       </c>
       <c r="L10">
-        <v>24.56222599183263</v>
+        <v>5.629902801135154</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.2645909439177</v>
       </c>
       <c r="N10">
-        <v>11.31037673297211</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.86527358782179</v>
+        <v>14.1101601101557</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>20.22415533742824</v>
+        <v>8.220075301140293</v>
       </c>
       <c r="E11">
-        <v>26.76281280986094</v>
+        <v>7.642669442073564</v>
       </c>
       <c r="F11">
-        <v>74.16609546027509</v>
+        <v>82.42673079593924</v>
       </c>
       <c r="G11">
-        <v>1.907341280494242</v>
+        <v>2.136740236531335</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.34982840973642</v>
+        <v>8.186081628300743</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.48096479857334</v>
       </c>
       <c r="L11">
-        <v>25.72434210454129</v>
+        <v>5.701514652545402</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.36079488274623</v>
       </c>
       <c r="N11">
-        <v>10.91645255672111</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.40738066728407</v>
+        <v>14.22995106420589</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>20.60225583361345</v>
+        <v>8.317349145033955</v>
       </c>
       <c r="E12">
-        <v>27.23303009424</v>
+        <v>7.674576287422608</v>
       </c>
       <c r="F12">
-        <v>75.40168895729539</v>
+        <v>83.25418604831573</v>
       </c>
       <c r="G12">
-        <v>1.89775525883753</v>
+        <v>2.133225619730941</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.52726787482502</v>
+        <v>8.208741532217607</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.71484598578281</v>
       </c>
       <c r="L12">
-        <v>26.16880303124557</v>
+        <v>5.785419275513287</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.39896898629618</v>
       </c>
       <c r="N12">
-        <v>10.76342415923133</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.29039805070433</v>
+        <v>14.20411313214077</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>20.52048368971521</v>
+        <v>8.296442217763083</v>
       </c>
       <c r="E13">
-        <v>27.131375986253</v>
+        <v>7.667689257871259</v>
       </c>
       <c r="F13">
-        <v>75.13409169898523</v>
+        <v>83.07618723824849</v>
       </c>
       <c r="G13">
-        <v>1.89983523715501</v>
+        <v>2.133982699819302</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.48888537944114</v>
+        <v>8.20385226177889</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.66458494737629</v>
       </c>
       <c r="L13">
-        <v>26.07282567394319</v>
+        <v>5.767384128512469</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.3906684583692</v>
       </c>
       <c r="N13">
-        <v>10.79657598603919</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.90977520098799</v>
+        <v>14.11999792434742</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>20.25511419395092</v>
+        <v>8.228097429789733</v>
       </c>
       <c r="E14">
-        <v>26.80133207380791</v>
+        <v>7.645287656462727</v>
       </c>
       <c r="F14">
-        <v>74.26709593690268</v>
+        <v>82.49490048615569</v>
       </c>
       <c r="G14">
-        <v>1.906559399069339</v>
+        <v>2.136451142806754</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.36435369201274</v>
+        <v>8.187941866428911</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.50025606065563</v>
       </c>
       <c r="L14">
-        <v>25.76079923649254</v>
+        <v>5.708433566249626</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.36390000566524</v>
       </c>
       <c r="N14">
-        <v>10.90394819186134</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.67723893292364</v>
+        <v>14.06858825224068</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>20.0934962038291</v>
+        <v>8.186108051642973</v>
       </c>
       <c r="E15">
-        <v>26.60021031060716</v>
+        <v>7.631609460106255</v>
       </c>
       <c r="F15">
-        <v>73.74018029013332</v>
+        <v>82.13822929653436</v>
       </c>
       <c r="G15">
-        <v>1.910635184427493</v>
+        <v>2.137962819562512</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.28853302452097</v>
+        <v>8.178221935086276</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.39927479788853</v>
       </c>
       <c r="L15">
-        <v>25.57035216693376</v>
+        <v>5.672219648626498</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.3477334086194</v>
       </c>
       <c r="N15">
-        <v>10.96917339685029</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.35130764412568</v>
+        <v>13.77570855049336</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>19.17876743473585</v>
+        <v>7.943504695529848</v>
       </c>
       <c r="E16">
-        <v>25.4602341261825</v>
+        <v>7.553830731446211</v>
       </c>
       <c r="F16">
-        <v>70.77562517509827</v>
+        <v>80.08462091912151</v>
       </c>
       <c r="G16">
-        <v>1.933423735073804</v>
+        <v>2.146625334245184</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.85979438383011</v>
+        <v>8.122877255975654</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.81541647034815</v>
       </c>
       <c r="L16">
-        <v>24.48671130044509</v>
+        <v>5.627500581805149</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.25854280921559</v>
       </c>
       <c r="N16">
-        <v>11.33565159016837</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.54134141614179</v>
+        <v>13.59757640247479</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>18.62520648932212</v>
+        <v>7.792865540814467</v>
       </c>
       <c r="E17">
-        <v>24.76897050459457</v>
+        <v>7.506594355259189</v>
       </c>
       <c r="F17">
-        <v>69.0831620167416</v>
+        <v>78.81597087926428</v>
       </c>
       <c r="G17">
-        <v>1.946981391032929</v>
+        <v>2.151943955081363</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.60073618409084</v>
+        <v>8.089205068493039</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.45242091523923</v>
       </c>
       <c r="L17">
-        <v>23.82634267328703</v>
+        <v>5.607624437112357</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.20683610857197</v>
       </c>
       <c r="N17">
-        <v>11.55493438535752</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.07589624634546</v>
+        <v>13.49568739472954</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>18.30871328729832</v>
+        <v>7.705541300392407</v>
       </c>
       <c r="E18">
-        <v>24.37327024406947</v>
+        <v>7.479577837864524</v>
       </c>
       <c r="F18">
-        <v>68.13550648297358</v>
+        <v>78.08297181394819</v>
       </c>
       <c r="G18">
-        <v>1.954653067688027</v>
+        <v>2.155006497345141</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.45278839932498</v>
+        <v>8.069926324308422</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.24179032971908</v>
       </c>
       <c r="L18">
-        <v>23.44728527403249</v>
+        <v>5.59716324702015</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.17817355856503</v>
       </c>
       <c r="N18">
-        <v>11.67936203639944</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.91830877381082</v>
+        <v>13.46128749047476</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>18.20180723640279</v>
+        <v>7.675856626848477</v>
       </c>
       <c r="E19">
-        <v>24.23953059905139</v>
+        <v>7.470454635574023</v>
       </c>
       <c r="F19">
-        <v>67.81683037457819</v>
+        <v>77.83421912734104</v>
       </c>
       <c r="G19">
-        <v>1.957231248819556</v>
+        <v>2.156044168299899</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.40284458139073</v>
+        <v>8.063412803224004</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.1701508055808</v>
       </c>
       <c r="L19">
-        <v>23.3190049112744</v>
+        <v>5.593784638857042</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.16865144610725</v>
       </c>
       <c r="N19">
-        <v>11.72122766743776</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.62750262487505</v>
+        <v>13.61648018578965</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>18.68391926552269</v>
+        <v>7.808971455120542</v>
       </c>
       <c r="E20">
-        <v>24.84233875768871</v>
+        <v>7.511606452857027</v>
       </c>
       <c r="F20">
-        <v>69.25963683872554</v>
+        <v>78.95136182286005</v>
       </c>
       <c r="G20">
-        <v>1.945551815836712</v>
+        <v>2.151377464339171</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.62819608300844</v>
+        <v>8.092780049599353</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.49125175655022</v>
       </c>
       <c r="L20">
-        <v>23.89654316813404</v>
+        <v>5.60963897308088</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.21222821279845</v>
       </c>
       <c r="N20">
-        <v>11.53177401494769</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.02144004747931</v>
+        <v>14.14468095336419</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>20.33285880784107</v>
+        <v>8.24819814225155</v>
       </c>
       <c r="E21">
-        <v>26.89804845633376</v>
+        <v>7.651858349712386</v>
       </c>
       <c r="F21">
-        <v>74.52086740937762</v>
+        <v>82.66576632838679</v>
       </c>
       <c r="G21">
-        <v>1.904593539352872</v>
+        <v>2.135726178301815</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.40083274710043</v>
+        <v>8.192609700000823</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.54859070639971</v>
       </c>
       <c r="L21">
-        <v>25.85230065674172</v>
+        <v>5.725770459497338</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.37171447809678</v>
       </c>
       <c r="N21">
-        <v>10.87252628711202</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.61080577255641</v>
+        <v>14.49496404793516</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>21.44962194227841</v>
+        <v>8.529564331123343</v>
       </c>
       <c r="E22">
-        <v>28.28513495593537</v>
+        <v>7.745400785038208</v>
       </c>
       <c r="F22">
-        <v>78.18555363890752</v>
+        <v>85.06557063909533</v>
       </c>
       <c r="G22">
-        <v>1.875982419619953</v>
+        <v>2.12548792198354</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.925210548614</v>
+        <v>8.258962530246018</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.22486637487594</v>
       </c>
       <c r="L22">
-        <v>27.15848968346862</v>
+        <v>5.968559022770238</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.48615941107207</v>
       </c>
       <c r="N22">
-        <v>10.4182882726343</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.75895180872539</v>
+        <v>14.30754145122259</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>20.8486269137591</v>
+        <v>8.379893936440567</v>
       </c>
       <c r="E23">
-        <v>27.5391702232477</v>
+        <v>7.695275787811933</v>
       </c>
       <c r="F23">
-        <v>76.20911317101088</v>
+        <v>83.78718038641114</v>
       </c>
       <c r="G23">
-        <v>1.891465908554541</v>
+        <v>2.130955196231052</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.6429332011991</v>
+        <v>8.223430525495692</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.86518712120886</v>
       </c>
       <c r="L23">
-        <v>26.45747768489942</v>
+        <v>5.839379580558646</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.42411214969657</v>
       </c>
       <c r="N23">
-        <v>10.6633652442864</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.58854866831142</v>
+        <v>13.60793216041131</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>18.65736995635226</v>
+        <v>7.801692216860056</v>
       </c>
       <c r="E24">
-        <v>24.80916387385441</v>
+        <v>7.509340051959716</v>
       </c>
       <c r="F24">
-        <v>69.17981112166314</v>
+        <v>78.89016291459112</v>
       </c>
       <c r="G24">
-        <v>1.946198502543391</v>
+        <v>2.151633559446855</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.61577847761249</v>
+        <v>8.091163555296903</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.47370239221461</v>
       </c>
       <c r="L24">
-        <v>23.86480386237359</v>
+        <v>5.60872520155497</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.20978713394299</v>
       </c>
       <c r="N24">
-        <v>11.54224985072802</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.22397261296617</v>
+        <v>12.8751934357121</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16.3625150580463</v>
+        <v>7.151914918397924</v>
       </c>
       <c r="E25">
-        <v>21.93229650036829</v>
+        <v>7.314400844950026</v>
       </c>
       <c r="F25">
-        <v>62.46230091968344</v>
+        <v>73.48196733279428</v>
       </c>
       <c r="G25">
-        <v>2.000534663089392</v>
+        <v>2.174085994752573</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.54664661065994</v>
+        <v>7.951745652410295</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.90153068898787</v>
       </c>
       <c r="L25">
-        <v>21.09382012440438</v>
+        <v>5.549017268650875</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.01950605020355</v>
       </c>
       <c r="N25">
-        <v>12.42708079252821</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.35545984661191</v>
+        <v>19.05064621328966</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.649856585751504</v>
+        <v>4.606291277960393</v>
       </c>
       <c r="E2">
-        <v>7.173420149944593</v>
+        <v>10.4977862042877</v>
       </c>
       <c r="F2">
-        <v>69.39017331811385</v>
+        <v>69.07147766769589</v>
       </c>
       <c r="G2">
-        <v>2.190924311759789</v>
+        <v>3.833506227394755</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.850462211243441</v>
+        <v>10.96933330052918</v>
       </c>
       <c r="K2">
-        <v>11.94463650299341</v>
+        <v>16.93207738241814</v>
       </c>
       <c r="L2">
-        <v>5.532649452800492</v>
+        <v>11.23066201579071</v>
       </c>
       <c r="M2">
-        <v>9.911553447679262</v>
+        <v>18.17708175807337</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.0164939422506</v>
+        <v>19.07214369751059</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.294710090828605</v>
+        <v>4.444431487095964</v>
       </c>
       <c r="E3">
-        <v>7.078531975733823</v>
+        <v>10.47249905381721</v>
       </c>
       <c r="F3">
-        <v>66.55199569716996</v>
+        <v>68.25161133668989</v>
       </c>
       <c r="G3">
-        <v>2.202603197723485</v>
+        <v>3.837460910741264</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.782078343063457</v>
+        <v>10.94651261277166</v>
       </c>
       <c r="K3">
-        <v>11.39850091214661</v>
+        <v>16.94663875645211</v>
       </c>
       <c r="L3">
-        <v>5.536898464029322</v>
+        <v>11.28428004849743</v>
       </c>
       <c r="M3">
-        <v>9.857018226839132</v>
+        <v>18.23747938262637</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.81530523445524</v>
+        <v>19.09012157755582</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.069385480251397</v>
+        <v>4.341587258140049</v>
       </c>
       <c r="E4">
-        <v>7.020329908311651</v>
+        <v>10.45645879720313</v>
       </c>
       <c r="F4">
-        <v>64.77949664116115</v>
+        <v>67.74649462972539</v>
       </c>
       <c r="G4">
-        <v>2.209927997914766</v>
+        <v>3.840013245919101</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.740045866882693</v>
+        <v>10.93201593665261</v>
       </c>
       <c r="K4">
-        <v>11.06757891395322</v>
+        <v>16.96189442160391</v>
       </c>
       <c r="L4">
-        <v>5.546483581231698</v>
+        <v>11.31978788780053</v>
       </c>
       <c r="M4">
-        <v>9.832257142539842</v>
+        <v>18.27822904561163</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.73512955805727</v>
+        <v>19.09864844442745</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.975766676680585</v>
+        <v>4.298847363366511</v>
       </c>
       <c r="E5">
-        <v>6.996592149017074</v>
+        <v>10.44979239286988</v>
       </c>
       <c r="F5">
-        <v>64.05015493995448</v>
+        <v>67.54036370310389</v>
       </c>
       <c r="G5">
-        <v>2.212954585694653</v>
+        <v>3.841084683237937</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.722883156657359</v>
+        <v>10.92598589380079</v>
       </c>
       <c r="K5">
-        <v>10.934000336106</v>
+        <v>16.96969521198523</v>
       </c>
       <c r="L5">
-        <v>5.552059026795751</v>
+        <v>11.33490761401541</v>
       </c>
       <c r="M5">
-        <v>9.82429238506942</v>
+        <v>18.29575609060415</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.72192773642021</v>
+        <v>19.10013681221506</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.960113946070643</v>
+        <v>4.291701570383426</v>
       </c>
       <c r="E6">
-        <v>6.992648348509872</v>
+        <v>10.44867757842604</v>
       </c>
       <c r="F6">
-        <v>63.92863933549221</v>
+        <v>67.50612226302233</v>
       </c>
       <c r="G6">
-        <v>2.213459747590819</v>
+        <v>3.84126449106095</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.720030605475281</v>
+        <v>10.92497719015007</v>
       </c>
       <c r="K6">
-        <v>10.91190207273164</v>
+        <v>16.97108605754444</v>
       </c>
       <c r="L6">
-        <v>5.553083229067455</v>
+        <v>11.33745748224175</v>
       </c>
       <c r="M6">
-        <v>9.823096229675945</v>
+        <v>18.29872206948848</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.81421653909535</v>
+        <v>19.09023171362632</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.068130131568662</v>
+        <v>4.341014157120925</v>
       </c>
       <c r="E7">
-        <v>7.020009897130645</v>
+        <v>10.45636941841145</v>
       </c>
       <c r="F7">
-        <v>64.7696882625542</v>
+        <v>67.74371567366774</v>
       </c>
       <c r="G7">
-        <v>2.209968643049586</v>
+        <v>3.84002756864197</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.73981457171972</v>
+        <v>10.93193511033626</v>
       </c>
       <c r="K7">
-        <v>11.06577202574821</v>
+        <v>16.96199321848963</v>
       </c>
       <c r="L7">
-        <v>5.546552124166441</v>
+        <v>11.31998916636263</v>
       </c>
       <c r="M7">
-        <v>9.832141210637085</v>
+        <v>18.27846169211156</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.23718309371532</v>
+        <v>19.05706645022899</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.528922414417304</v>
+        <v>4.551223420148466</v>
       </c>
       <c r="E8">
-        <v>7.140668194206073</v>
+        <v>10.48917344277654</v>
       </c>
       <c r="F8">
-        <v>68.41801250865048</v>
+        <v>68.78922765604241</v>
       </c>
       <c r="G8">
-        <v>2.194921109932781</v>
+        <v>3.834844110472071</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.826878244114178</v>
+        <v>10.96156492814147</v>
       </c>
       <c r="K8">
-        <v>11.75550540715025</v>
+        <v>16.93578545318809</v>
       </c>
       <c r="L8">
-        <v>5.532614714617544</v>
+        <v>11.24861256400696</v>
       </c>
       <c r="M8">
-        <v>9.890898110798947</v>
+        <v>18.19714587725937</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.11904084768619</v>
+        <v>19.02996116058729</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.374411644357775</v>
+        <v>4.934415278699615</v>
       </c>
       <c r="E9">
-        <v>7.379531986408597</v>
+        <v>10.54945599882478</v>
       </c>
       <c r="F9">
-        <v>75.32093721060068</v>
+        <v>70.81974224764122</v>
       </c>
       <c r="G9">
-        <v>2.16648625138943</v>
+        <v>3.825658769891833</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.998408926727447</v>
+        <v>11.01585358876082</v>
       </c>
       <c r="K9">
-        <v>13.4413444174245</v>
+        <v>16.93462148849137</v>
       </c>
       <c r="L9">
-        <v>5.564586023900178</v>
+        <v>11.12917817935402</v>
       </c>
       <c r="M9">
-        <v>10.07841341718885</v>
+        <v>18.0667872607765</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.79611139570844</v>
+        <v>19.03316746152063</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.960602512709603</v>
+        <v>5.196441725259515</v>
       </c>
       <c r="E10">
-        <v>7.559243047682809</v>
+        <v>10.59132400217888</v>
       </c>
       <c r="F10">
-        <v>80.22893872274524</v>
+        <v>72.2914055903917</v>
       </c>
       <c r="G10">
-        <v>2.146018778926946</v>
+        <v>3.819499502029549</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.126732505143266</v>
+        <v>11.05345704403104</v>
       </c>
       <c r="K10">
-        <v>14.8565920561134</v>
+        <v>16.96447687087403</v>
       </c>
       <c r="L10">
-        <v>5.629902801135154</v>
+        <v>11.05397020349245</v>
       </c>
       <c r="M10">
-        <v>10.2645909439177</v>
+        <v>17.98877921055272</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.1101601101557</v>
+        <v>19.03963492356994</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.220075301140293</v>
+        <v>5.311100072325751</v>
       </c>
       <c r="E11">
-        <v>7.642669442073564</v>
+        <v>10.60985477858281</v>
       </c>
       <c r="F11">
-        <v>82.42673079593924</v>
+        <v>72.95483081480826</v>
       </c>
       <c r="G11">
-        <v>2.136740236531335</v>
+        <v>3.816823747751932</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.186081628300743</v>
+        <v>11.07007758504955</v>
       </c>
       <c r="K11">
-        <v>15.48096479857334</v>
+        <v>16.9847197176867</v>
       </c>
       <c r="L11">
-        <v>5.701514652545402</v>
+        <v>11.02248446787241</v>
       </c>
       <c r="M11">
-        <v>10.36079488274623</v>
+        <v>17.95715397526462</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.22995106420589</v>
+        <v>19.04280230026004</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.317349145033955</v>
+        <v>5.353843994926468</v>
       </c>
       <c r="E12">
-        <v>7.674576287422608</v>
+        <v>10.61679855032455</v>
       </c>
       <c r="F12">
-        <v>83.25418604831573</v>
+        <v>73.20504416906512</v>
       </c>
       <c r="G12">
-        <v>2.133225619730941</v>
+        <v>3.81582851660652</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.208741532217607</v>
+        <v>11.07630224647482</v>
       </c>
       <c r="K12">
-        <v>15.71484598578281</v>
+        <v>16.99334023732566</v>
       </c>
       <c r="L12">
-        <v>5.785419275513287</v>
+        <v>11.01095426879745</v>
       </c>
       <c r="M12">
-        <v>10.39896898629618</v>
+        <v>17.94573388176347</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.20411313214077</v>
+        <v>19.04208824052167</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.296442217763083</v>
+        <v>5.344668653954096</v>
       </c>
       <c r="E13">
-        <v>7.667689257871259</v>
+        <v>10.61530634031536</v>
       </c>
       <c r="F13">
-        <v>83.07618723824849</v>
+        <v>73.15120346262842</v>
       </c>
       <c r="G13">
-        <v>2.133982699819302</v>
+        <v>3.816042057919828</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.20385226177889</v>
+        <v>11.07496472088683</v>
       </c>
       <c r="K13">
-        <v>15.66458494737629</v>
+        <v>16.99144124132398</v>
       </c>
       <c r="L13">
-        <v>5.767384128512469</v>
+        <v>11.01342002428657</v>
       </c>
       <c r="M13">
-        <v>10.3906684583692</v>
+        <v>17.94816868121134</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.11999792434742</v>
+        <v>19.03988112335233</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.228097429789733</v>
+        <v>5.314630278466329</v>
       </c>
       <c r="E14">
-        <v>7.645287656462727</v>
+        <v>10.61042751478696</v>
       </c>
       <c r="F14">
-        <v>82.49490048615569</v>
+        <v>72.97543709257052</v>
       </c>
       <c r="G14">
-        <v>2.136451142806754</v>
+        <v>3.816741509035925</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.187941866428911</v>
+        <v>11.07059107448207</v>
       </c>
       <c r="K14">
-        <v>15.50025606065563</v>
+        <v>16.98540981503323</v>
       </c>
       <c r="L14">
-        <v>5.708433566249626</v>
+        <v>11.02152799596603</v>
       </c>
       <c r="M14">
-        <v>10.36390000566524</v>
+        <v>17.95620329769251</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.06858825224068</v>
+        <v>19.03862267425018</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.186108051642973</v>
+        <v>5.296142435803069</v>
       </c>
       <c r="E15">
-        <v>7.631609460106255</v>
+        <v>10.60742954977336</v>
       </c>
       <c r="F15">
-        <v>82.13822929653436</v>
+        <v>72.8676392285837</v>
       </c>
       <c r="G15">
-        <v>2.137962819562512</v>
+        <v>3.817172286138804</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.178221935086276</v>
+        <v>11.06790309964139</v>
       </c>
       <c r="K15">
-        <v>15.39927479788853</v>
+        <v>16.98183965101573</v>
       </c>
       <c r="L15">
-        <v>5.672219648626498</v>
+        <v>11.02654553249518</v>
       </c>
       <c r="M15">
-        <v>10.3477334086194</v>
+        <v>17.96119711403247</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.77570855049336</v>
+        <v>19.03284543280574</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.943504695529848</v>
+        <v>5.188855249423961</v>
       </c>
       <c r="E16">
-        <v>7.553830731446211</v>
+        <v>10.59010266118757</v>
       </c>
       <c r="F16">
-        <v>80.08462091912151</v>
+        <v>72.24791535446332</v>
       </c>
       <c r="G16">
-        <v>2.146625334245184</v>
+        <v>3.819676896772298</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.122877255975654</v>
+        <v>11.05236113795064</v>
       </c>
       <c r="K16">
-        <v>14.81541647034815</v>
+        <v>16.96328778024448</v>
       </c>
       <c r="L16">
-        <v>5.627500581805149</v>
+        <v>11.05608279558734</v>
       </c>
       <c r="M16">
-        <v>10.25854280921559</v>
+        <v>17.9909237303239</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.59757640247479</v>
+        <v>19.03058294909339</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.792865540814467</v>
+        <v>5.121858915090774</v>
       </c>
       <c r="E17">
-        <v>7.506594355259189</v>
+        <v>10.57934168790851</v>
       </c>
       <c r="F17">
-        <v>78.81597087926428</v>
+        <v>71.86608494274014</v>
       </c>
       <c r="G17">
-        <v>2.151943955081363</v>
+        <v>3.821245614440547</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.089205068493039</v>
+        <v>11.04270276018957</v>
       </c>
       <c r="K17">
-        <v>14.45242091523923</v>
+        <v>16.95361132155678</v>
       </c>
       <c r="L17">
-        <v>5.607624437112357</v>
+        <v>11.0749017990841</v>
       </c>
       <c r="M17">
-        <v>10.20683610857197</v>
+        <v>18.0101493073356</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.49568739472954</v>
+        <v>19.02975324435481</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.705541300392407</v>
+        <v>5.082898301121108</v>
       </c>
       <c r="E18">
-        <v>7.479577837864524</v>
+        <v>10.57310372963152</v>
       </c>
       <c r="F18">
-        <v>78.08297181394819</v>
+        <v>71.64590585047443</v>
       </c>
       <c r="G18">
-        <v>2.155006497345141</v>
+        <v>3.822159778113165</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.069926324308422</v>
+        <v>11.03710178536409</v>
       </c>
       <c r="K18">
-        <v>14.24179032971908</v>
+        <v>16.94867294901126</v>
       </c>
       <c r="L18">
-        <v>5.59716324702015</v>
+        <v>11.08598260563984</v>
       </c>
       <c r="M18">
-        <v>10.17817355856503</v>
+        <v>18.02157074194023</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.46128749047476</v>
+        <v>19.0295533722442</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.675856626848477</v>
+        <v>5.069634444672513</v>
       </c>
       <c r="E19">
-        <v>7.470454635574023</v>
+        <v>10.57098330905341</v>
       </c>
       <c r="F19">
-        <v>77.83421912734104</v>
+        <v>71.57126515027667</v>
       </c>
       <c r="G19">
-        <v>2.156044168299899</v>
+        <v>3.822471342015817</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.063412803224004</v>
+        <v>11.03519751785359</v>
       </c>
       <c r="K19">
-        <v>14.1701508055808</v>
+        <v>16.94710870219709</v>
       </c>
       <c r="L19">
-        <v>5.593784638857042</v>
+        <v>11.08977843014576</v>
       </c>
       <c r="M19">
-        <v>10.16865144610725</v>
+        <v>18.02550024057206</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.61648018578965</v>
+        <v>19.03077499646815</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.808971455120542</v>
+        <v>5.129035057360382</v>
       </c>
       <c r="E20">
-        <v>7.511606452857027</v>
+        <v>10.58049222994136</v>
       </c>
       <c r="F20">
-        <v>78.95136182286005</v>
+        <v>71.90679047779224</v>
       </c>
       <c r="G20">
-        <v>2.151377464339171</v>
+        <v>3.821077393216907</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.092780049599353</v>
+        <v>11.04373563943117</v>
       </c>
       <c r="K20">
-        <v>14.49125175655022</v>
+        <v>16.95457649390072</v>
       </c>
       <c r="L20">
-        <v>5.60963897308088</v>
+        <v>11.07287192080437</v>
       </c>
       <c r="M20">
-        <v>10.21222821279845</v>
+        <v>18.00806509856544</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.14468095336419</v>
+        <v>19.04050993162229</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.24819814225155</v>
+        <v>5.3234717498925</v>
       </c>
       <c r="E21">
-        <v>7.651858349712386</v>
+        <v>10.61186253180394</v>
       </c>
       <c r="F21">
-        <v>82.66576632838679</v>
+        <v>73.02709250457187</v>
       </c>
       <c r="G21">
-        <v>2.135726178301815</v>
+        <v>3.816535575198143</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.192609700000823</v>
+        <v>11.07187759286334</v>
       </c>
       <c r="K21">
-        <v>15.54859070639971</v>
+        <v>16.98715550280782</v>
       </c>
       <c r="L21">
-        <v>5.725770459497338</v>
+        <v>11.01913582319097</v>
       </c>
       <c r="M21">
-        <v>10.37171447809678</v>
+        <v>17.95382825097327</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.49496404793516</v>
+        <v>19.05105769325058</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.529564331123343</v>
+        <v>5.446606457528967</v>
       </c>
       <c r="E22">
-        <v>7.745400785038208</v>
+        <v>10.63193712879807</v>
       </c>
       <c r="F22">
-        <v>85.06557063909533</v>
+        <v>73.75331584080553</v>
       </c>
       <c r="G22">
-        <v>2.12548792198354</v>
+        <v>3.81367220813743</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.258962530246018</v>
+        <v>11.08986706322289</v>
       </c>
       <c r="K22">
-        <v>16.22486637487594</v>
+        <v>17.01401190060858</v>
       </c>
       <c r="L22">
-        <v>5.968559022770238</v>
+        <v>10.9863058408944</v>
       </c>
       <c r="M22">
-        <v>10.48615941107207</v>
+        <v>17.92162055321686</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.30754145122259</v>
+        <v>19.0450459900294</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.379893936440567</v>
+        <v>5.381254276152606</v>
       </c>
       <c r="E23">
-        <v>7.695275787811933</v>
+        <v>10.62126185801108</v>
       </c>
       <c r="F23">
-        <v>83.78718038641114</v>
+        <v>73.36630823662247</v>
       </c>
       <c r="G23">
-        <v>2.130955196231052</v>
+        <v>3.815190874849196</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.223430525495692</v>
+        <v>11.08030240356616</v>
       </c>
       <c r="K23">
-        <v>15.86518712120886</v>
+        <v>16.9991703270765</v>
       </c>
       <c r="L23">
-        <v>5.839379580558646</v>
+        <v>11.00361809054363</v>
       </c>
       <c r="M23">
-        <v>10.42411214969657</v>
+        <v>17.9385138705452</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.60793216041131</v>
+        <v>19.03068670456132</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.801692216860056</v>
+        <v>5.125792103231314</v>
       </c>
       <c r="E24">
-        <v>7.509340051959716</v>
+        <v>10.57997222982327</v>
       </c>
       <c r="F24">
-        <v>78.89016291459112</v>
+        <v>71.88838954937272</v>
       </c>
       <c r="G24">
-        <v>2.151633559446855</v>
+        <v>3.821153407751675</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.091163555296903</v>
+        <v>11.04326882504559</v>
       </c>
       <c r="K24">
-        <v>14.47370239221461</v>
+        <v>16.95413819331439</v>
       </c>
       <c r="L24">
-        <v>5.60872520155497</v>
+        <v>11.07378881427696</v>
       </c>
       <c r="M24">
-        <v>10.20978713394299</v>
+        <v>18.00900622192192</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.8751934357121</v>
+        <v>19.03323127595131</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.151914918397924</v>
+        <v>4.834060657083127</v>
       </c>
       <c r="E25">
-        <v>7.314400844950026</v>
+        <v>10.53357647791251</v>
       </c>
       <c r="F25">
-        <v>73.48196733279428</v>
+        <v>70.27339008761291</v>
       </c>
       <c r="G25">
-        <v>2.174085994752573</v>
+        <v>3.828039610845458</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.951745652410295</v>
+        <v>11.00157101785063</v>
       </c>
       <c r="K25">
-        <v>12.90153068898787</v>
+        <v>16.9295446901695</v>
       </c>
       <c r="L25">
-        <v>5.549017268650875</v>
+        <v>11.15928778315216</v>
       </c>
       <c r="M25">
-        <v>10.01950605020355</v>
+        <v>18.09893443669819</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.05064621328966</v>
+        <v>12.35545984661195</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.606291277960393</v>
+        <v>6.649856585751429</v>
       </c>
       <c r="E2">
-        <v>10.4977862042877</v>
+        <v>7.173420149944593</v>
       </c>
       <c r="F2">
-        <v>69.07147766769589</v>
+        <v>69.39017331811374</v>
       </c>
       <c r="G2">
-        <v>3.833506227394755</v>
+        <v>2.190924311759917</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.96933330052918</v>
+        <v>7.850462211243397</v>
       </c>
       <c r="K2">
-        <v>16.93207738241814</v>
+        <v>11.94463650299344</v>
       </c>
       <c r="L2">
-        <v>11.23066201579071</v>
+        <v>5.532649452800547</v>
       </c>
       <c r="M2">
-        <v>18.17708175807337</v>
+        <v>9.911553447679315</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.07214369751059</v>
+        <v>12.01649394225069</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.444431487095964</v>
+        <v>6.294710090828609</v>
       </c>
       <c r="E3">
-        <v>10.47249905381721</v>
+        <v>7.078531975733621</v>
       </c>
       <c r="F3">
-        <v>68.25161133668989</v>
+        <v>66.55199569716996</v>
       </c>
       <c r="G3">
-        <v>3.837460910741264</v>
+        <v>2.202603197723222</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.94651261277166</v>
+        <v>7.782078343063474</v>
       </c>
       <c r="K3">
-        <v>16.94663875645211</v>
+        <v>11.39850091214669</v>
       </c>
       <c r="L3">
-        <v>11.28428004849743</v>
+        <v>5.536898464029328</v>
       </c>
       <c r="M3">
-        <v>18.23747938262637</v>
+        <v>9.857018226839148</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.09012157755582</v>
+        <v>11.81530523445512</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.341587258140049</v>
+        <v>6.06938548025142</v>
       </c>
       <c r="E4">
-        <v>10.45645879720313</v>
+        <v>7.020329908311854</v>
       </c>
       <c r="F4">
-        <v>67.74649462972539</v>
+        <v>64.77949664116105</v>
       </c>
       <c r="G4">
-        <v>3.840013245919101</v>
+        <v>2.209927997914635</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.93201593665261</v>
+        <v>7.740045866882783</v>
       </c>
       <c r="K4">
-        <v>16.96189442160391</v>
+        <v>11.06757891395322</v>
       </c>
       <c r="L4">
-        <v>11.31978788780053</v>
+        <v>5.546483581231774</v>
       </c>
       <c r="M4">
-        <v>18.27822904561163</v>
+        <v>9.832257142539829</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.09864844442745</v>
+        <v>11.7351295580573</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.298847363366511</v>
+        <v>5.975766676680589</v>
       </c>
       <c r="E5">
-        <v>10.44979239286988</v>
+        <v>6.996592149017275</v>
       </c>
       <c r="F5">
-        <v>67.54036370310389</v>
+        <v>64.0501549399546</v>
       </c>
       <c r="G5">
-        <v>3.841084683237937</v>
+        <v>2.212954585694652</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.92598589380079</v>
+        <v>7.72288315665757</v>
       </c>
       <c r="K5">
-        <v>16.96969521198523</v>
+        <v>10.93400033610601</v>
       </c>
       <c r="L5">
-        <v>11.33490761401541</v>
+        <v>5.552059026795824</v>
       </c>
       <c r="M5">
-        <v>18.29575609060415</v>
+        <v>9.824292385069517</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.10013681221506</v>
+        <v>11.72192773642027</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.291701570383426</v>
+        <v>5.960113946070742</v>
       </c>
       <c r="E6">
-        <v>10.44867757842604</v>
+        <v>6.992648348509803</v>
       </c>
       <c r="F6">
-        <v>67.50612226302233</v>
+        <v>63.92863933549195</v>
       </c>
       <c r="G6">
-        <v>3.84126449106095</v>
+        <v>2.213459747590819</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.92497719015007</v>
+        <v>7.720030605475395</v>
       </c>
       <c r="K6">
-        <v>16.97108605754444</v>
+        <v>10.9119020727317</v>
       </c>
       <c r="L6">
-        <v>11.33745748224175</v>
+        <v>5.553083229067521</v>
       </c>
       <c r="M6">
-        <v>18.29872206948848</v>
+        <v>9.823096229676002</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.09023171362632</v>
+        <v>11.81421653909523</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.341014157120925</v>
+        <v>6.06813013156871</v>
       </c>
       <c r="E7">
-        <v>10.45636941841145</v>
+        <v>7.020009897130445</v>
       </c>
       <c r="F7">
-        <v>67.74371567366774</v>
+        <v>64.76968826255406</v>
       </c>
       <c r="G7">
-        <v>3.84002756864197</v>
+        <v>2.209968643049583</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.93193511033626</v>
+        <v>7.739814571719643</v>
       </c>
       <c r="K7">
-        <v>16.96199321848963</v>
+        <v>11.06577202574818</v>
       </c>
       <c r="L7">
-        <v>11.31998916636263</v>
+        <v>5.546552124166412</v>
       </c>
       <c r="M7">
-        <v>18.27846169211156</v>
+        <v>9.832141210636944</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.05706645022899</v>
+        <v>12.23718309371525</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.551223420148466</v>
+        <v>6.528922414417253</v>
       </c>
       <c r="E8">
-        <v>10.48917344277654</v>
+        <v>7.140668194206206</v>
       </c>
       <c r="F8">
-        <v>68.78922765604241</v>
+        <v>68.41801250865068</v>
       </c>
       <c r="G8">
-        <v>3.834844110472071</v>
+        <v>2.194921109932908</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.96156492814147</v>
+        <v>7.826878244114162</v>
       </c>
       <c r="K8">
-        <v>16.93578545318809</v>
+        <v>11.75550540715018</v>
       </c>
       <c r="L8">
-        <v>11.24861256400696</v>
+        <v>5.532614714617515</v>
       </c>
       <c r="M8">
-        <v>18.19714587725937</v>
+        <v>9.89089811079892</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.02996116058729</v>
+        <v>13.11904084768608</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.934415278699615</v>
+        <v>7.374411644357812</v>
       </c>
       <c r="E9">
-        <v>10.54945599882478</v>
+        <v>7.379531986408796</v>
       </c>
       <c r="F9">
-        <v>70.81974224764122</v>
+        <v>75.32093721060079</v>
       </c>
       <c r="G9">
-        <v>3.825658769891833</v>
+        <v>2.166486251389038</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.01585358876082</v>
+        <v>7.998408926727492</v>
       </c>
       <c r="K9">
-        <v>16.93462148849137</v>
+        <v>13.44134441742454</v>
       </c>
       <c r="L9">
-        <v>11.12917817935402</v>
+        <v>5.564586023900227</v>
       </c>
       <c r="M9">
-        <v>18.0667872607765</v>
+        <v>10.07841341718886</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.03316746152063</v>
+        <v>13.79611139570846</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.196441725259515</v>
+        <v>7.960602512709539</v>
       </c>
       <c r="E10">
-        <v>10.59132400217888</v>
+        <v>7.559243047682942</v>
       </c>
       <c r="F10">
-        <v>72.2914055903917</v>
+        <v>80.22893872274516</v>
       </c>
       <c r="G10">
-        <v>3.819499502029549</v>
+        <v>2.146018778926946</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.05345704403104</v>
+        <v>8.126732505143263</v>
       </c>
       <c r="K10">
-        <v>16.96447687087403</v>
+        <v>14.85659205611339</v>
       </c>
       <c r="L10">
-        <v>11.05397020349245</v>
+        <v>5.6299028011351</v>
       </c>
       <c r="M10">
-        <v>17.98877921055272</v>
+        <v>10.26459094391771</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.03963492356994</v>
+        <v>14.11016011015562</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.311100072325751</v>
+        <v>8.220075301140341</v>
       </c>
       <c r="E11">
-        <v>10.60985477858281</v>
+        <v>7.642669442073569</v>
       </c>
       <c r="F11">
-        <v>72.95483081480826</v>
+        <v>82.42673079593941</v>
       </c>
       <c r="G11">
-        <v>3.816823747751932</v>
+        <v>2.136740236531207</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.07007758504955</v>
+        <v>8.186081628300801</v>
       </c>
       <c r="K11">
-        <v>16.9847197176867</v>
+        <v>15.48096479857339</v>
       </c>
       <c r="L11">
-        <v>11.02248446787241</v>
+        <v>5.701514652545354</v>
       </c>
       <c r="M11">
-        <v>17.95715397526462</v>
+        <v>10.36079488274617</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.04280230026004</v>
+        <v>14.22995106420597</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.353843994926468</v>
+        <v>8.317349145033944</v>
       </c>
       <c r="E12">
-        <v>10.61679855032455</v>
+        <v>7.674576287422741</v>
       </c>
       <c r="F12">
-        <v>73.20504416906512</v>
+        <v>83.25418604831572</v>
       </c>
       <c r="G12">
-        <v>3.81582851660652</v>
+        <v>2.133225619730677</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.07630224647482</v>
+        <v>8.20874153221774</v>
       </c>
       <c r="K12">
-        <v>16.99334023732566</v>
+        <v>15.7148459857828</v>
       </c>
       <c r="L12">
-        <v>11.01095426879745</v>
+        <v>5.78541927551321</v>
       </c>
       <c r="M12">
-        <v>17.94573388176347</v>
+        <v>10.39896898629622</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.04208824052167</v>
+        <v>14.2041131321407</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.344668653954096</v>
+        <v>8.296442217763145</v>
       </c>
       <c r="E13">
-        <v>10.61530634031536</v>
+        <v>7.667689257871259</v>
       </c>
       <c r="F13">
-        <v>73.15120346262842</v>
+        <v>83.07618723824882</v>
       </c>
       <c r="G13">
-        <v>3.816042057919828</v>
+        <v>2.133982699819159</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.07496472088683</v>
+        <v>8.203852261779007</v>
       </c>
       <c r="K13">
-        <v>16.99144124132398</v>
+        <v>15.66458494737639</v>
       </c>
       <c r="L13">
-        <v>11.01342002428657</v>
+        <v>5.767384128512575</v>
       </c>
       <c r="M13">
-        <v>17.94816868121134</v>
+        <v>10.39066845836913</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.03988112335233</v>
+        <v>14.11999792434743</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.314630278466329</v>
+        <v>8.228097429789683</v>
       </c>
       <c r="E14">
-        <v>10.61042751478696</v>
+        <v>7.645287656462594</v>
       </c>
       <c r="F14">
-        <v>72.97543709257052</v>
+        <v>82.49490048615542</v>
       </c>
       <c r="G14">
-        <v>3.816741509035925</v>
+        <v>2.136451142807255</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.07059107448207</v>
+        <v>8.187941866428783</v>
       </c>
       <c r="K14">
-        <v>16.98540981503323</v>
+        <v>15.50025606065557</v>
       </c>
       <c r="L14">
-        <v>11.02152799596603</v>
+        <v>5.70843356624969</v>
       </c>
       <c r="M14">
-        <v>17.95620329769251</v>
+        <v>10.36390000566524</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.03862267425018</v>
+        <v>14.06858825224078</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.296142435803069</v>
+        <v>8.186108051642931</v>
       </c>
       <c r="E15">
-        <v>10.60742954977336</v>
+        <v>7.631609460106052</v>
       </c>
       <c r="F15">
-        <v>72.8676392285837</v>
+        <v>82.13822929653374</v>
       </c>
       <c r="G15">
-        <v>3.817172286138804</v>
+        <v>2.137962819562495</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.06790309964139</v>
+        <v>8.17822193508626</v>
       </c>
       <c r="K15">
-        <v>16.98183965101573</v>
+        <v>15.39927479788849</v>
       </c>
       <c r="L15">
-        <v>11.02654553249518</v>
+        <v>5.67221964862656</v>
       </c>
       <c r="M15">
-        <v>17.96119711403247</v>
+        <v>10.34773340861948</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.03284543280574</v>
+        <v>13.77570855049344</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.188855249423961</v>
+        <v>7.943504695529787</v>
       </c>
       <c r="E16">
-        <v>10.59010266118757</v>
+        <v>7.553830731446146</v>
       </c>
       <c r="F16">
-        <v>72.24791535446332</v>
+        <v>80.08462091912135</v>
       </c>
       <c r="G16">
-        <v>3.819676896772298</v>
+        <v>2.146625334245066</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.05236113795064</v>
+        <v>8.122877255975562</v>
       </c>
       <c r="K16">
-        <v>16.96328778024448</v>
+        <v>14.81541647034796</v>
       </c>
       <c r="L16">
-        <v>11.05608279558734</v>
+        <v>5.627500581805197</v>
       </c>
       <c r="M16">
-        <v>17.9909237303239</v>
+        <v>10.25854280921567</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.03058294909339</v>
+        <v>13.5975764024748</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.121858915090774</v>
+        <v>7.79286554081439</v>
       </c>
       <c r="E17">
-        <v>10.57934168790851</v>
+        <v>7.506594355259256</v>
       </c>
       <c r="F17">
-        <v>71.86608494274014</v>
+        <v>78.81597087926374</v>
       </c>
       <c r="G17">
-        <v>3.821245614440547</v>
+        <v>2.151943955081098</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.04270276018957</v>
+        <v>8.08920506849304</v>
       </c>
       <c r="K17">
-        <v>16.95361132155678</v>
+        <v>14.45242091523913</v>
       </c>
       <c r="L17">
-        <v>11.0749017990841</v>
+        <v>5.607624437112442</v>
       </c>
       <c r="M17">
-        <v>18.0101493073356</v>
+        <v>10.20683610857205</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.02975324435481</v>
+        <v>13.49568739472959</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.082898301121108</v>
+        <v>7.70554130039238</v>
       </c>
       <c r="E18">
-        <v>10.57310372963152</v>
+        <v>7.479577837864457</v>
       </c>
       <c r="F18">
-        <v>71.64590585047443</v>
+        <v>78.08297181394805</v>
       </c>
       <c r="G18">
-        <v>3.822159778113165</v>
+        <v>2.155006497345035</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.03710178536409</v>
+        <v>8.069926324308353</v>
       </c>
       <c r="K18">
-        <v>16.94867294901126</v>
+        <v>14.24179032971904</v>
       </c>
       <c r="L18">
-        <v>11.08598260563984</v>
+        <v>5.597163247020178</v>
       </c>
       <c r="M18">
-        <v>18.02157074194023</v>
+        <v>10.17817355856507</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.0295533722442</v>
+        <v>13.46128749047477</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.069634444672513</v>
+        <v>7.675856626848352</v>
       </c>
       <c r="E19">
-        <v>10.57098330905341</v>
+        <v>7.470454635573956</v>
       </c>
       <c r="F19">
-        <v>71.57126515027667</v>
+        <v>77.8342191273407</v>
       </c>
       <c r="G19">
-        <v>3.822471342015817</v>
+        <v>2.156044168300037</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.03519751785359</v>
+        <v>8.063412803223958</v>
       </c>
       <c r="K19">
-        <v>16.94710870219709</v>
+        <v>14.17015080558076</v>
       </c>
       <c r="L19">
-        <v>11.08977843014576</v>
+        <v>5.59378463885708</v>
       </c>
       <c r="M19">
-        <v>18.02550024057206</v>
+        <v>10.16865144610728</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.03077499646815</v>
+        <v>13.61648018578962</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.129035057360382</v>
+        <v>7.808971455120576</v>
       </c>
       <c r="E20">
-        <v>10.58049222994136</v>
+        <v>7.511606452857293</v>
       </c>
       <c r="F20">
-        <v>71.90679047779224</v>
+        <v>78.95136182286022</v>
       </c>
       <c r="G20">
-        <v>3.821077393216907</v>
+        <v>2.151377464339431</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.04373563943117</v>
+        <v>8.09278004959952</v>
       </c>
       <c r="K20">
-        <v>16.95457649390072</v>
+        <v>14.49125175655028</v>
       </c>
       <c r="L20">
-        <v>11.07287192080437</v>
+        <v>5.609638973080937</v>
       </c>
       <c r="M20">
-        <v>18.00806509856544</v>
+        <v>10.21222821279848</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.04050993162229</v>
+        <v>14.14468095336419</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.3234717498925</v>
+        <v>8.248198142251654</v>
       </c>
       <c r="E21">
-        <v>10.61186253180394</v>
+        <v>7.651858349712115</v>
       </c>
       <c r="F21">
-        <v>73.02709250457187</v>
+        <v>82.66576632838702</v>
       </c>
       <c r="G21">
-        <v>3.816535575198143</v>
+        <v>2.135726178301171</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.07187759286334</v>
+        <v>8.192609700000821</v>
       </c>
       <c r="K21">
-        <v>16.98715550280782</v>
+        <v>15.54859070639964</v>
       </c>
       <c r="L21">
-        <v>11.01913582319097</v>
+        <v>5.725770459497487</v>
       </c>
       <c r="M21">
-        <v>17.95382825097327</v>
+        <v>10.37171447809674</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.05105769325058</v>
+        <v>14.49496404793517</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.446606457528967</v>
+        <v>8.529564331123341</v>
       </c>
       <c r="E22">
-        <v>10.63193712879807</v>
+        <v>7.745400785038208</v>
       </c>
       <c r="F22">
-        <v>73.75331584080553</v>
+        <v>85.0655706390953</v>
       </c>
       <c r="G22">
-        <v>3.81367220813743</v>
+        <v>2.125487921983281</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.08986706322289</v>
+        <v>8.258962530246059</v>
       </c>
       <c r="K22">
-        <v>17.01401190060858</v>
+        <v>16.22486637487582</v>
       </c>
       <c r="L22">
-        <v>10.9863058408944</v>
+        <v>5.968559022770139</v>
       </c>
       <c r="M22">
-        <v>17.92162055321686</v>
+        <v>10.48615941107214</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.0450459900294</v>
+        <v>14.30754145122258</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.381254276152606</v>
+        <v>8.379893936440585</v>
       </c>
       <c r="E23">
-        <v>10.62126185801108</v>
+        <v>7.695275787812067</v>
       </c>
       <c r="F23">
-        <v>73.36630823662247</v>
+        <v>83.78718038641178</v>
       </c>
       <c r="G23">
-        <v>3.815190874849196</v>
+        <v>2.130955196231176</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.08030240356616</v>
+        <v>8.22343052549572</v>
       </c>
       <c r="K23">
-        <v>16.9991703270765</v>
+        <v>15.86518712120885</v>
       </c>
       <c r="L23">
-        <v>11.00361809054363</v>
+        <v>5.83937958055868</v>
       </c>
       <c r="M23">
-        <v>17.9385138705452</v>
+        <v>10.42411214969653</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.03068670456132</v>
+        <v>13.60793216041137</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.125792103231314</v>
+        <v>7.801692216860009</v>
       </c>
       <c r="E24">
-        <v>10.57997222982327</v>
+        <v>7.509340051959447</v>
       </c>
       <c r="F24">
-        <v>71.88838954937272</v>
+        <v>78.89016291459097</v>
       </c>
       <c r="G24">
-        <v>3.821153407751675</v>
+        <v>2.151633559446595</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.04326882504559</v>
+        <v>8.091163555296783</v>
       </c>
       <c r="K24">
-        <v>16.95413819331439</v>
+        <v>14.47370239221454</v>
       </c>
       <c r="L24">
-        <v>11.07378881427696</v>
+        <v>5.608725201554972</v>
       </c>
       <c r="M24">
-        <v>18.00900622192192</v>
+        <v>10.20978713394297</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.03323127595131</v>
+        <v>12.87519343571215</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.834060657083127</v>
+        <v>7.151914918397841</v>
       </c>
       <c r="E25">
-        <v>10.53357647791251</v>
+        <v>7.314400844949959</v>
       </c>
       <c r="F25">
-        <v>70.27339008761291</v>
+        <v>73.48196733279374</v>
       </c>
       <c r="G25">
-        <v>3.828039610845458</v>
+        <v>2.174085994752704</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.00157101785063</v>
+        <v>7.951745652410288</v>
       </c>
       <c r="K25">
-        <v>16.9295446901695</v>
+        <v>12.90153068898789</v>
       </c>
       <c r="L25">
-        <v>11.15928778315216</v>
+        <v>5.549017268650944</v>
       </c>
       <c r="M25">
-        <v>18.09893443669819</v>
+        <v>10.01950605020362</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.35545984661195</v>
+        <v>19.51318330836458</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.649856585751429</v>
+        <v>7.625465523357247</v>
       </c>
       <c r="E2">
-        <v>7.173420149944593</v>
+        <v>13.58676995102795</v>
       </c>
       <c r="F2">
-        <v>69.39017331811374</v>
+        <v>31.64194912159061</v>
       </c>
       <c r="G2">
-        <v>2.190924311759917</v>
+        <v>48.54607971675767</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.609263798000339</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.586837643496082</v>
       </c>
       <c r="J2">
-        <v>7.850462211243397</v>
+        <v>13.63679600169964</v>
       </c>
       <c r="K2">
-        <v>11.94463650299344</v>
+        <v>15.73501389633077</v>
       </c>
       <c r="L2">
-        <v>5.532649452800547</v>
+        <v>8.671892546297096</v>
       </c>
       <c r="M2">
-        <v>9.911553447679315</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13.96630972077187</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>13.48489331570636</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.01649394225069</v>
+        <v>18.33313029076075</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.294710090828609</v>
+        <v>7.297316953275867</v>
       </c>
       <c r="E3">
-        <v>7.078531975733621</v>
+        <v>12.96573967958801</v>
       </c>
       <c r="F3">
-        <v>66.55199569716996</v>
+        <v>30.31210435103559</v>
       </c>
       <c r="G3">
-        <v>2.202603197723222</v>
+        <v>45.79584229638348</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.914737674834541</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.743678253478187</v>
       </c>
       <c r="J3">
-        <v>7.782078343063474</v>
+        <v>13.16381228713522</v>
       </c>
       <c r="K3">
-        <v>11.39850091214669</v>
+        <v>15.93135596563163</v>
       </c>
       <c r="L3">
-        <v>5.536898464029328</v>
+        <v>8.378348064866142</v>
       </c>
       <c r="M3">
-        <v>9.857018226839148</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>13.13127815516542</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>13.51130099949605</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.81530523445512</v>
+        <v>17.5662943636996</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.06938548025142</v>
+        <v>7.090160009296527</v>
       </c>
       <c r="E4">
-        <v>7.020329908311854</v>
+        <v>12.57233218548465</v>
       </c>
       <c r="F4">
-        <v>64.77949664116105</v>
+        <v>29.48332758302094</v>
       </c>
       <c r="G4">
-        <v>2.209927997914635</v>
+        <v>44.05225463426169</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.107785136851385</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.843411090631794</v>
       </c>
       <c r="J4">
-        <v>7.740045866882783</v>
+        <v>12.87264200722417</v>
       </c>
       <c r="K4">
-        <v>11.06757891395322</v>
+        <v>16.05536014986594</v>
       </c>
       <c r="L4">
-        <v>5.546483581231774</v>
+        <v>8.193494371581171</v>
       </c>
       <c r="M4">
-        <v>9.832257142539829</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>12.59552240399426</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>13.53038950290296</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.7351295580573</v>
+        <v>17.23515459419759</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.975766676680589</v>
+        <v>7.005115923618462</v>
       </c>
       <c r="E5">
-        <v>6.996592149017275</v>
+        <v>12.41221589806561</v>
       </c>
       <c r="F5">
-        <v>64.0501549399546</v>
+        <v>29.13372356115362</v>
       </c>
       <c r="G5">
-        <v>2.212954585694652</v>
+        <v>43.3149742587939</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.188139330615337</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.887512499780473</v>
       </c>
       <c r="J5">
-        <v>7.72288315665757</v>
+        <v>12.75103473069179</v>
       </c>
       <c r="K5">
-        <v>10.93400033610601</v>
+        <v>16.10131798039138</v>
       </c>
       <c r="L5">
-        <v>5.552059026795824</v>
+        <v>8.1185131505099</v>
       </c>
       <c r="M5">
-        <v>9.824292385069517</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>12.37710404487215</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>13.54066087898611</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.72192773642027</v>
+        <v>17.16960306779956</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.960113946070742</v>
+        <v>6.991878177523153</v>
       </c>
       <c r="E6">
-        <v>6.992648348509803</v>
+        <v>12.38939283970173</v>
       </c>
       <c r="F6">
-        <v>63.92863933549195</v>
+        <v>29.06427547545983</v>
       </c>
       <c r="G6">
-        <v>2.213459747590819</v>
+        <v>43.17517577142967</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.201888644372392</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.898185379555805</v>
       </c>
       <c r="J6">
-        <v>7.720030605475395</v>
+        <v>12.72730161863119</v>
       </c>
       <c r="K6">
-        <v>10.9119020727317</v>
+        <v>16.10238729060502</v>
       </c>
       <c r="L6">
-        <v>5.553083229067521</v>
+        <v>8.107834426369244</v>
       </c>
       <c r="M6">
-        <v>9.823096229676002</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>12.34734323615923</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>13.54460103761869</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.81421653909523</v>
+        <v>17.53533203138073</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.06813013156871</v>
+        <v>7.091636713312051</v>
       </c>
       <c r="E7">
-        <v>7.020009897130445</v>
+        <v>12.580821190824</v>
       </c>
       <c r="F7">
-        <v>64.76968826255406</v>
+        <v>29.44836002775223</v>
       </c>
       <c r="G7">
-        <v>2.209968643049583</v>
+        <v>43.99796929634051</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.10971541751759</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.852722756938251</v>
       </c>
       <c r="J7">
-        <v>7.739814571719643</v>
+        <v>12.86144953838545</v>
       </c>
       <c r="K7">
-        <v>11.06577202574818</v>
+        <v>16.03790179416024</v>
       </c>
       <c r="L7">
-        <v>5.546552124166412</v>
+        <v>8.197487407692741</v>
       </c>
       <c r="M7">
-        <v>9.832141210636944</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>12.61087653970447</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>13.53662037149287</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.23718309371525</v>
+        <v>19.08251437441515</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.528922414417253</v>
+        <v>7.516828199032721</v>
       </c>
       <c r="E8">
-        <v>7.140668194206206</v>
+        <v>13.38859428103636</v>
       </c>
       <c r="F8">
-        <v>68.41801250865068</v>
+        <v>31.14821611800775</v>
       </c>
       <c r="G8">
-        <v>2.194921109932908</v>
+        <v>47.55487019980743</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.714522547757771</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.651280181446871</v>
       </c>
       <c r="J8">
-        <v>7.826878244114162</v>
+        <v>13.46185082890347</v>
       </c>
       <c r="K8">
-        <v>11.75550540715018</v>
+        <v>15.77803394645077</v>
       </c>
       <c r="L8">
-        <v>5.532614714617515</v>
+        <v>8.578110400985796</v>
       </c>
       <c r="M8">
-        <v>9.89089811079892</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>13.70561189224539</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>13.50194570936554</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.11904084768608</v>
+        <v>21.82065879529994</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.374411644357812</v>
+        <v>8.301322424219761</v>
       </c>
       <c r="E9">
-        <v>7.379531986408796</v>
+        <v>14.8589180944074</v>
       </c>
       <c r="F9">
-        <v>75.32093721060079</v>
+        <v>34.42003487939468</v>
       </c>
       <c r="G9">
-        <v>2.166486251389038</v>
+        <v>54.14588104484299</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.127539109173018</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.26841209373434</v>
       </c>
       <c r="J9">
-        <v>7.998408926727492</v>
+        <v>14.64430064020431</v>
       </c>
       <c r="K9">
-        <v>13.44134441742454</v>
+        <v>15.32933303808247</v>
       </c>
       <c r="L9">
-        <v>5.564586023900227</v>
+        <v>9.279230495441288</v>
       </c>
       <c r="M9">
-        <v>10.07841341718886</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>15.63725151701856</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>13.44551265990597</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.79611139570846</v>
+        <v>23.54405280449025</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.960602512709539</v>
+        <v>8.872012353151916</v>
       </c>
       <c r="E10">
-        <v>7.559243047682942</v>
+        <v>15.96464837536847</v>
       </c>
       <c r="F10">
-        <v>80.22893872274516</v>
+        <v>36.53300192521976</v>
       </c>
       <c r="G10">
-        <v>2.146018778926946</v>
+        <v>58.402183840493</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.621074761318226</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.014241657287162</v>
       </c>
       <c r="J10">
-        <v>8.126732505143263</v>
+        <v>15.43382288007927</v>
       </c>
       <c r="K10">
-        <v>14.85659205611339</v>
+        <v>14.95364239468854</v>
       </c>
       <c r="L10">
-        <v>5.6299028011351</v>
+        <v>9.8162571738129</v>
       </c>
       <c r="M10">
-        <v>10.26459094391771</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>16.94541007019691</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>13.44975237240592</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.11016011015562</v>
+        <v>23.65901271111852</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.220075301140341</v>
+        <v>9.300968800903178</v>
       </c>
       <c r="E11">
-        <v>7.642669442073569</v>
+        <v>17.16487185448434</v>
       </c>
       <c r="F11">
-        <v>82.42673079593941</v>
+        <v>35.75872294686096</v>
       </c>
       <c r="G11">
-        <v>2.136740236531207</v>
+        <v>57.87570533050281</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.402587053058</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.974660627748363</v>
       </c>
       <c r="J11">
-        <v>8.186081628300801</v>
+        <v>15.23303078796699</v>
       </c>
       <c r="K11">
-        <v>15.48096479857339</v>
+        <v>14.29807557538748</v>
       </c>
       <c r="L11">
-        <v>5.701514652545354</v>
+        <v>10.44255369121973</v>
       </c>
       <c r="M11">
-        <v>10.36079488274617</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>16.68711847595544</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>13.72402872918187</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.22995106420597</v>
+        <v>23.42955321165781</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.317349145033944</v>
+        <v>9.546191077911155</v>
       </c>
       <c r="E12">
-        <v>7.674576287422741</v>
+        <v>17.97114764481506</v>
       </c>
       <c r="F12">
-        <v>83.25418604831572</v>
+        <v>34.67614002656583</v>
       </c>
       <c r="G12">
-        <v>2.133225619730677</v>
+        <v>56.57667289682337</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.535405010519355</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.97498008325116</v>
       </c>
       <c r="J12">
-        <v>8.20874153221774</v>
+        <v>14.9004099388142</v>
       </c>
       <c r="K12">
-        <v>15.7148459857828</v>
+        <v>13.88800006374782</v>
       </c>
       <c r="L12">
-        <v>5.78541927551321</v>
+        <v>10.88195871093604</v>
       </c>
       <c r="M12">
-        <v>10.39896898629622</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>16.17478823793232</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>13.9648630335003</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.2041131321407</v>
+        <v>22.88328461991764</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.296442217763145</v>
+        <v>9.672197969120591</v>
       </c>
       <c r="E13">
-        <v>7.667689257871259</v>
+        <v>18.55065388983255</v>
       </c>
       <c r="F13">
-        <v>83.07618723824882</v>
+        <v>33.21773561949743</v>
       </c>
       <c r="G13">
-        <v>2.133982699819159</v>
+        <v>54.49653604750739</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.762194475771373</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.020870818068714</v>
       </c>
       <c r="J13">
-        <v>8.203852261779007</v>
+        <v>14.42325456157468</v>
       </c>
       <c r="K13">
-        <v>15.66458494737639</v>
+        <v>13.62159429727174</v>
       </c>
       <c r="L13">
-        <v>5.767384128512575</v>
+        <v>11.21442014242361</v>
       </c>
       <c r="M13">
-        <v>10.39066845836913</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>15.44050443504515</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>14.19849818160294</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.11999792434743</v>
+        <v>22.34359724476528</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.228097429789683</v>
+        <v>9.709120461007766</v>
       </c>
       <c r="E14">
-        <v>7.645287656462594</v>
+        <v>18.86634074993401</v>
       </c>
       <c r="F14">
-        <v>82.49490048615542</v>
+        <v>32.00263219788223</v>
       </c>
       <c r="G14">
-        <v>2.136451142807255</v>
+        <v>52.64620615474004</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.657499048449204</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.076289052289299</v>
       </c>
       <c r="J14">
-        <v>8.187941866428783</v>
+        <v>14.01677049300663</v>
       </c>
       <c r="K14">
-        <v>15.50025606065557</v>
+        <v>13.50701962835525</v>
       </c>
       <c r="L14">
-        <v>5.70843356624969</v>
+        <v>11.40538725618028</v>
       </c>
       <c r="M14">
-        <v>10.36390000566524</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>14.81999368058788</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>14.36143278553851</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.06858825224078</v>
+        <v>22.13469650519854</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.186108051642931</v>
+        <v>9.693313878591399</v>
       </c>
       <c r="E15">
-        <v>7.631609460106052</v>
+        <v>18.89641874472796</v>
       </c>
       <c r="F15">
-        <v>82.13822929653374</v>
+        <v>31.61619983272191</v>
       </c>
       <c r="G15">
-        <v>2.137962819562495</v>
+        <v>52.00989075585773</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.859231870542684</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.104125233088976</v>
       </c>
       <c r="J15">
-        <v>8.17822193508626</v>
+        <v>13.88405472732831</v>
       </c>
       <c r="K15">
-        <v>15.39927479788849</v>
+        <v>13.5019638778287</v>
       </c>
       <c r="L15">
-        <v>5.67221964862656</v>
+        <v>11.42853674504503</v>
       </c>
       <c r="M15">
-        <v>10.34773340861948</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>14.62416466984283</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>14.3999622510133</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.77570855049344</v>
+        <v>21.48459085893023</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.943504695529787</v>
+        <v>9.43756228659395</v>
       </c>
       <c r="E16">
-        <v>7.553830731446146</v>
+        <v>18.36203483471355</v>
       </c>
       <c r="F16">
-        <v>80.08462091912135</v>
+        <v>30.90845158570686</v>
       </c>
       <c r="G16">
-        <v>2.146625334245066</v>
+        <v>50.45339306889171</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.563368224155903</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.209256879184845</v>
       </c>
       <c r="J16">
-        <v>8.122877255975562</v>
+        <v>13.61292030598704</v>
       </c>
       <c r="K16">
-        <v>14.81541647034796</v>
+        <v>13.7185714647449</v>
       </c>
       <c r="L16">
-        <v>5.627500581805197</v>
+        <v>11.15273334930718</v>
       </c>
       <c r="M16">
-        <v>10.25854280921567</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>14.180555968554</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>14.33900349180367</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.5975764024748</v>
+        <v>21.27651685050012</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.79286554081439</v>
+        <v>9.217774786547459</v>
       </c>
       <c r="E17">
-        <v>7.506594355259256</v>
+        <v>17.76686362323173</v>
       </c>
       <c r="F17">
-        <v>78.81597087926374</v>
+        <v>31.03636872887907</v>
       </c>
       <c r="G17">
-        <v>2.151943955081098</v>
+        <v>50.28263929554939</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.806768952770586</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.261139577858025</v>
       </c>
       <c r="J17">
-        <v>8.08920506849304</v>
+        <v>13.62862202035429</v>
       </c>
       <c r="K17">
-        <v>14.45242091523913</v>
+        <v>13.93797543535397</v>
       </c>
       <c r="L17">
-        <v>5.607624437112442</v>
+        <v>10.83115690378723</v>
       </c>
       <c r="M17">
-        <v>10.20683610857205</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>14.1824318780294</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>14.20711260847108</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.49568739472959</v>
+        <v>21.45198882858519</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.70554130039238</v>
+        <v>9.004937784032197</v>
       </c>
       <c r="E18">
-        <v>7.479577837864457</v>
+        <v>17.0581339223964</v>
       </c>
       <c r="F18">
-        <v>78.08297181394805</v>
+        <v>31.91365084614631</v>
       </c>
       <c r="G18">
-        <v>2.155006497345035</v>
+        <v>51.32192885511528</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.607189858720228</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.261707724079431</v>
       </c>
       <c r="J18">
-        <v>8.069926324308353</v>
+        <v>13.89653219546797</v>
       </c>
       <c r="K18">
-        <v>14.24179032971904</v>
+        <v>14.21744345847605</v>
       </c>
       <c r="L18">
-        <v>5.597163247020178</v>
+        <v>10.440692592346</v>
       </c>
       <c r="M18">
-        <v>10.17817355856507</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>14.56452337239651</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>13.999640151091</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.46128749047477</v>
+        <v>21.87793686875108</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.675856626848352</v>
+        <v>8.822989662117662</v>
       </c>
       <c r="E19">
-        <v>7.470454635573956</v>
+        <v>16.35979787312849</v>
       </c>
       <c r="F19">
-        <v>77.8342191273407</v>
+        <v>33.25920504197526</v>
       </c>
       <c r="G19">
-        <v>2.156044168300037</v>
+        <v>53.16094945175696</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.303102847894861</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.237076928565912</v>
       </c>
       <c r="J19">
-        <v>8.063412803223958</v>
+        <v>14.32471113708573</v>
       </c>
       <c r="K19">
-        <v>14.17015080558076</v>
+        <v>14.53733090112833</v>
       </c>
       <c r="L19">
-        <v>5.59378463885708</v>
+        <v>10.05603655375137</v>
       </c>
       <c r="M19">
-        <v>10.16865144610728</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>15.24565206172459</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>13.77558317026433</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.61648018578962</v>
+        <v>23.03696497508014</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.808971455120576</v>
+        <v>8.731895898035912</v>
       </c>
       <c r="E20">
-        <v>7.511606452857293</v>
+        <v>15.71026274923874</v>
       </c>
       <c r="F20">
-        <v>78.95136182286022</v>
+        <v>35.89638802477525</v>
       </c>
       <c r="G20">
-        <v>2.151377464339431</v>
+        <v>57.18177778041245</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.489097887602304</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.109849768569878</v>
       </c>
       <c r="J20">
-        <v>8.09278004959952</v>
+        <v>15.1991111964469</v>
       </c>
       <c r="K20">
-        <v>14.49125175655028</v>
+        <v>14.99231748168816</v>
       </c>
       <c r="L20">
-        <v>5.609638973080937</v>
+        <v>9.693011421543723</v>
       </c>
       <c r="M20">
-        <v>10.21222821279848</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>16.64737822928773</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>13.4713601552941</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.14468095336419</v>
+        <v>24.4182496636974</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.248198142251654</v>
+        <v>9.129738905873634</v>
       </c>
       <c r="E21">
-        <v>7.651858349712115</v>
+        <v>16.41285524101758</v>
       </c>
       <c r="F21">
-        <v>82.66576632838702</v>
+        <v>37.81165466770868</v>
       </c>
       <c r="G21">
-        <v>2.135726178301171</v>
+        <v>60.80929469475171</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.881715640768495</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.903540418006242</v>
       </c>
       <c r="J21">
-        <v>8.192609700000821</v>
+        <v>15.90421060417931</v>
       </c>
       <c r="K21">
-        <v>15.54859070639964</v>
+        <v>14.80905397248131</v>
       </c>
       <c r="L21">
-        <v>5.725770459497487</v>
+        <v>10.03074475312031</v>
       </c>
       <c r="M21">
-        <v>10.37171447809674</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>17.75483452782389</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>13.43347357422233</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.49496404793517</v>
+        <v>25.27180955583727</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.529564331123341</v>
+        <v>9.393062580123852</v>
       </c>
       <c r="E22">
-        <v>7.745400785038208</v>
+        <v>16.8923659029111</v>
       </c>
       <c r="F22">
-        <v>85.0655706390953</v>
+        <v>38.97519877448515</v>
       </c>
       <c r="G22">
-        <v>2.125487921983281</v>
+        <v>63.02474324295253</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.129559411012325</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.762119063202865</v>
       </c>
       <c r="J22">
-        <v>8.258962530246059</v>
+        <v>16.33923251207548</v>
       </c>
       <c r="K22">
-        <v>16.22486637487582</v>
+        <v>14.68923110552413</v>
       </c>
       <c r="L22">
-        <v>5.968559022770139</v>
+        <v>10.2637311432176</v>
       </c>
       <c r="M22">
-        <v>10.48615941107214</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>18.3861707002807</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>13.41566851698713</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.30754145122258</v>
+        <v>24.84283699918909</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.379893936440585</v>
+        <v>9.250359039858603</v>
       </c>
       <c r="E23">
-        <v>7.695275787812067</v>
+        <v>16.62719149615314</v>
       </c>
       <c r="F23">
-        <v>83.78718038641178</v>
+        <v>38.38370429561216</v>
       </c>
       <c r="G23">
-        <v>2.130955196231176</v>
+        <v>61.88555062963269</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.998224598009378</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.825558675559368</v>
       </c>
       <c r="J23">
-        <v>8.22343052549572</v>
+        <v>16.11645165612621</v>
       </c>
       <c r="K23">
-        <v>15.86518712120885</v>
+        <v>14.77446804077141</v>
       </c>
       <c r="L23">
-        <v>5.83937958055868</v>
+        <v>10.13450020118874</v>
       </c>
       <c r="M23">
-        <v>10.42411214969653</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>18.03624273781609</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>13.41606805761553</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.60793216041137</v>
+        <v>23.10698930531235</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.801692216860009</v>
+        <v>8.705543271393021</v>
       </c>
       <c r="E24">
-        <v>7.509340051959447</v>
+        <v>15.61966135855807</v>
       </c>
       <c r="F24">
-        <v>78.89016291459097</v>
+        <v>36.06618456548972</v>
       </c>
       <c r="G24">
-        <v>2.151633559446595</v>
+        <v>57.40481221901292</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.494186925507773</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.089734047775005</v>
       </c>
       <c r="J24">
-        <v>8.091163555296783</v>
+        <v>15.25259955214036</v>
       </c>
       <c r="K24">
-        <v>14.47370239221454</v>
+        <v>15.07224005925181</v>
       </c>
       <c r="L24">
-        <v>5.608725201554972</v>
+        <v>9.646009480698368</v>
       </c>
       <c r="M24">
-        <v>10.20978713394297</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>16.68385802374906</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>13.4373568115589</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.87519343571215</v>
+        <v>21.07600031799193</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.151914918397841</v>
+        <v>8.098117755693458</v>
       </c>
       <c r="E25">
-        <v>7.314400844949959</v>
+        <v>14.48852028036628</v>
       </c>
       <c r="F25">
-        <v>73.48196733279374</v>
+        <v>33.50060931183064</v>
       </c>
       <c r="G25">
-        <v>2.174085994752704</v>
+        <v>52.34609614998803</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.93627377482939</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.385148285772308</v>
       </c>
       <c r="J25">
-        <v>7.951745652410288</v>
+        <v>14.31074069504835</v>
       </c>
       <c r="K25">
-        <v>12.90153068898789</v>
+        <v>15.41470379935869</v>
       </c>
       <c r="L25">
-        <v>5.549017268650944</v>
+        <v>9.101970865250184</v>
       </c>
       <c r="M25">
-        <v>10.01950605020362</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>15.16255774834802</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>13.47071750546989</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.51318330836458</v>
+        <v>19.12452890094109</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.625465523357247</v>
+        <v>7.442364569760761</v>
       </c>
       <c r="E2">
-        <v>13.58676995102795</v>
+        <v>13.3387168270065</v>
       </c>
       <c r="F2">
-        <v>31.64194912159061</v>
+        <v>31.33942121847133</v>
       </c>
       <c r="G2">
-        <v>48.54607971675767</v>
+        <v>47.74244312936288</v>
       </c>
       <c r="H2">
-        <v>1.609263798000339</v>
+        <v>1.578062119777593</v>
       </c>
       <c r="I2">
-        <v>3.586837643496082</v>
+        <v>3.380125030924144</v>
       </c>
       <c r="J2">
-        <v>13.63679600169964</v>
+        <v>14.09188468019124</v>
       </c>
       <c r="K2">
-        <v>15.73501389633077</v>
+        <v>15.02506065371905</v>
       </c>
       <c r="L2">
-        <v>8.671892546297096</v>
+        <v>12.08249663921932</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.08841674242974</v>
       </c>
       <c r="N2">
-        <v>13.96630972077187</v>
+        <v>8.521960287960313</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>13.48489331570636</v>
+        <v>14.26274369606465</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.41646472053396</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.33313029076075</v>
+        <v>17.98319989342792</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.297316953275867</v>
+        <v>7.121901361100362</v>
       </c>
       <c r="E3">
-        <v>12.96573967958801</v>
+        <v>12.70280464428751</v>
       </c>
       <c r="F3">
-        <v>30.31210435103559</v>
+        <v>30.0637103455581</v>
       </c>
       <c r="G3">
-        <v>45.79584229638348</v>
+        <v>45.05697667347189</v>
       </c>
       <c r="H3">
-        <v>1.914737674834541</v>
+        <v>1.827449067805093</v>
       </c>
       <c r="I3">
-        <v>3.743678253478187</v>
+        <v>3.514686572210979</v>
       </c>
       <c r="J3">
-        <v>13.16381228713522</v>
+        <v>13.61424035709722</v>
       </c>
       <c r="K3">
-        <v>15.93135596563163</v>
+        <v>15.22979133940064</v>
       </c>
       <c r="L3">
-        <v>8.378348064866142</v>
+        <v>12.26858183666854</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.25107717317239</v>
       </c>
       <c r="N3">
-        <v>13.13127815516542</v>
+        <v>8.217697638980139</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>13.51130099949605</v>
+        <v>13.40346213585086</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.40462659521591</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.5662943636996</v>
+        <v>17.23968145398424</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.090160009296527</v>
+        <v>6.919484022704779</v>
       </c>
       <c r="E4">
-        <v>12.57233218548465</v>
+        <v>12.29957011593836</v>
       </c>
       <c r="F4">
-        <v>29.48332758302094</v>
+        <v>29.26627301728501</v>
       </c>
       <c r="G4">
-        <v>44.05225463426169</v>
+        <v>43.3560389107658</v>
       </c>
       <c r="H4">
-        <v>2.107785136851385</v>
+        <v>2.007565116700325</v>
       </c>
       <c r="I4">
-        <v>3.843411090631794</v>
+        <v>3.600593199041895</v>
       </c>
       <c r="J4">
-        <v>12.87264200722417</v>
+        <v>13.31519101836048</v>
       </c>
       <c r="K4">
-        <v>16.05536014986594</v>
+        <v>15.35762461831939</v>
       </c>
       <c r="L4">
-        <v>8.193494371581171</v>
+        <v>12.38618811444369</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.36495058733872</v>
       </c>
       <c r="N4">
-        <v>12.59552240399426</v>
+        <v>8.026111236602826</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>13.53038950290296</v>
+        <v>12.85242632468414</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.40088334844705</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.23515459419759</v>
+        <v>16.91825307871233</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.005115923618462</v>
+        <v>6.836403044174374</v>
       </c>
       <c r="E5">
-        <v>12.41221589806561</v>
+        <v>12.13533056502213</v>
       </c>
       <c r="F5">
-        <v>29.13372356115362</v>
+        <v>28.92941012389425</v>
       </c>
       <c r="G5">
-        <v>43.3149742587939</v>
+        <v>42.63750874420175</v>
       </c>
       <c r="H5">
-        <v>2.188139330615337</v>
+        <v>2.082561586736877</v>
       </c>
       <c r="I5">
-        <v>3.887512499780473</v>
+        <v>3.639458286495861</v>
       </c>
       <c r="J5">
-        <v>12.75103473069179</v>
+        <v>13.18929191869891</v>
       </c>
       <c r="K5">
-        <v>16.10131798039138</v>
+        <v>15.40527819939101</v>
       </c>
       <c r="L5">
-        <v>8.1185131505099</v>
+        <v>12.42968452366431</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.41258295076893</v>
       </c>
       <c r="N5">
-        <v>12.37710404487215</v>
+        <v>7.948388202944042</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>13.54066087898611</v>
+        <v>12.62737959971712</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.40206747093407</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.16960306779956</v>
+        <v>16.85475353759727</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.991878177523153</v>
+        <v>6.823506007985318</v>
       </c>
       <c r="E6">
-        <v>12.38939283970173</v>
+        <v>12.11184110080997</v>
       </c>
       <c r="F6">
-        <v>29.06427547545983</v>
+        <v>28.86264075438526</v>
       </c>
       <c r="G6">
-        <v>43.17517577142967</v>
+        <v>42.50168589905255</v>
       </c>
       <c r="H6">
-        <v>2.201888644372392</v>
+        <v>2.095392827506811</v>
       </c>
       <c r="I6">
-        <v>3.898185379555805</v>
+        <v>3.649838398497344</v>
       </c>
       <c r="J6">
-        <v>12.72730161863119</v>
+        <v>13.16499360625</v>
       </c>
       <c r="K6">
-        <v>16.10238729060502</v>
+        <v>15.4071610478369</v>
       </c>
       <c r="L6">
-        <v>8.107834426369244</v>
+        <v>12.43052996439892</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.41801037753961</v>
       </c>
       <c r="N6">
-        <v>12.34734323615923</v>
+        <v>7.937280444045318</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>13.54460103761869</v>
+        <v>12.59610615760946</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.40457319481276</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.53533203138073</v>
+        <v>17.20447184542613</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.091636713312051</v>
+        <v>6.912628576363307</v>
       </c>
       <c r="E7">
-        <v>12.580821190824</v>
+        <v>12.29722594399417</v>
       </c>
       <c r="F7">
-        <v>29.44836002775223</v>
+        <v>29.20215318929042</v>
       </c>
       <c r="G7">
-        <v>43.99796929634051</v>
+        <v>43.37841891336657</v>
       </c>
       <c r="H7">
-        <v>2.10971541751759</v>
+        <v>2.010540119387949</v>
       </c>
       <c r="I7">
-        <v>3.852722756938251</v>
+        <v>3.611880301091436</v>
       </c>
       <c r="J7">
-        <v>12.86144953838545</v>
+        <v>13.23131160114754</v>
       </c>
       <c r="K7">
-        <v>16.03790179416024</v>
+        <v>15.33855883733632</v>
       </c>
       <c r="L7">
-        <v>8.197487407692741</v>
+        <v>12.36616430498115</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.35645973946138</v>
       </c>
       <c r="N7">
-        <v>12.61087653970447</v>
+        <v>8.026808386444323</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>13.53662037149287</v>
+        <v>12.85659032151374</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.40875201048643</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.08251437441515</v>
+        <v>18.69161594737572</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.516828199032721</v>
+        <v>7.3097543783761</v>
       </c>
       <c r="E8">
-        <v>13.38859428103636</v>
+        <v>13.10138824123369</v>
       </c>
       <c r="F8">
-        <v>31.14821611800775</v>
+        <v>30.76884600016542</v>
       </c>
       <c r="G8">
-        <v>47.55487019980743</v>
+        <v>47.00585440042126</v>
       </c>
       <c r="H8">
-        <v>1.714522547757771</v>
+        <v>1.644469933190747</v>
       </c>
       <c r="I8">
-        <v>3.651280181446871</v>
+        <v>3.440540112931538</v>
       </c>
       <c r="J8">
-        <v>13.46185082890347</v>
+        <v>13.68336574623674</v>
       </c>
       <c r="K8">
-        <v>15.77803394645077</v>
+        <v>15.06333481030559</v>
       </c>
       <c r="L8">
-        <v>8.578110400985796</v>
+        <v>12.11535086207737</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.12360870975821</v>
       </c>
       <c r="N8">
-        <v>13.70561189224539</v>
+        <v>8.413922738811863</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>13.50194570936554</v>
+        <v>13.96149250319988</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.42605690877783</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.82065879529994</v>
+        <v>21.32825038355595</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.301322424219761</v>
+        <v>8.069553283223581</v>
       </c>
       <c r="E9">
-        <v>14.8589180944074</v>
+        <v>14.5976509229159</v>
       </c>
       <c r="F9">
-        <v>34.42003487939468</v>
+        <v>33.87766900205683</v>
       </c>
       <c r="G9">
-        <v>54.14588104484299</v>
+        <v>53.48033043963463</v>
       </c>
       <c r="H9">
-        <v>2.127539109173018</v>
+        <v>2.145842636181513</v>
       </c>
       <c r="I9">
-        <v>3.26841209373434</v>
+        <v>3.111390275836885</v>
       </c>
       <c r="J9">
-        <v>14.64430064020431</v>
+        <v>14.80418930091542</v>
       </c>
       <c r="K9">
-        <v>15.32933303808247</v>
+        <v>14.58103271858062</v>
       </c>
       <c r="L9">
-        <v>9.279230495441288</v>
+        <v>11.68895695261228</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.804782719139405</v>
       </c>
       <c r="N9">
-        <v>15.63725151701856</v>
+        <v>9.137932646097047</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>13.44551265990597</v>
+        <v>15.94736628072617</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>13.47049761007018</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.54405280449025</v>
+        <v>22.96222532585606</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.872012353151916</v>
+        <v>8.58004147333256</v>
       </c>
       <c r="E10">
-        <v>15.96464837536847</v>
+        <v>15.66429335848297</v>
       </c>
       <c r="F10">
-        <v>36.53300192521976</v>
+        <v>35.72782956419218</v>
       </c>
       <c r="G10">
-        <v>58.402183840493</v>
+        <v>58.01682062562862</v>
       </c>
       <c r="H10">
-        <v>2.621074761318226</v>
+        <v>2.598279145675132</v>
       </c>
       <c r="I10">
-        <v>3.014241657287162</v>
+        <v>2.899246467871925</v>
       </c>
       <c r="J10">
-        <v>15.43382288007927</v>
+        <v>15.16489164900175</v>
       </c>
       <c r="K10">
-        <v>14.95364239468854</v>
+        <v>14.16963031289092</v>
       </c>
       <c r="L10">
-        <v>9.8162571738129</v>
+        <v>11.34168864347123</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.591691291446939</v>
       </c>
       <c r="N10">
-        <v>16.94541007019691</v>
+        <v>9.673063339290525</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>13.44975237240592</v>
+        <v>17.14081108734295</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>13.56157882782717</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.65901271111852</v>
+        <v>23.07953041056903</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.300968800903178</v>
+        <v>8.909350384708171</v>
       </c>
       <c r="E11">
-        <v>17.16487185448434</v>
+        <v>16.74530966947611</v>
       </c>
       <c r="F11">
-        <v>35.75872294686096</v>
+        <v>34.68851855151331</v>
       </c>
       <c r="G11">
-        <v>57.87570533050281</v>
+        <v>58.32925136008599</v>
       </c>
       <c r="H11">
-        <v>3.402587053058</v>
+        <v>3.367820691550637</v>
       </c>
       <c r="I11">
-        <v>2.974660627748363</v>
+        <v>2.87834670104233</v>
       </c>
       <c r="J11">
-        <v>15.23303078796699</v>
+        <v>14.19162577187465</v>
       </c>
       <c r="K11">
-        <v>14.29807557538748</v>
+        <v>13.59644021955982</v>
       </c>
       <c r="L11">
-        <v>10.44255369121973</v>
+        <v>10.92671993022757</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.168996789958154</v>
       </c>
       <c r="N11">
-        <v>16.68711847595544</v>
+        <v>10.26623634503561</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>13.72402872918187</v>
+        <v>16.69092176883415</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>13.88058437834052</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.42955321165781</v>
+        <v>22.88551428351033</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.546191077911155</v>
+        <v>9.10495696261405</v>
       </c>
       <c r="E12">
-        <v>17.97114764481506</v>
+        <v>17.4820483375536</v>
       </c>
       <c r="F12">
-        <v>34.67614002656583</v>
+        <v>33.52779710089819</v>
       </c>
       <c r="G12">
-        <v>56.57667289682337</v>
+        <v>57.47842821627758</v>
       </c>
       <c r="H12">
-        <v>4.535405010519355</v>
+        <v>4.50575332035281</v>
       </c>
       <c r="I12">
-        <v>2.97498008325116</v>
+        <v>2.881399921993781</v>
       </c>
       <c r="J12">
-        <v>14.9004099388142</v>
+        <v>13.52349329338086</v>
       </c>
       <c r="K12">
-        <v>13.88800006374782</v>
+        <v>13.27051798215138</v>
       </c>
       <c r="L12">
-        <v>10.88195871093604</v>
+        <v>10.71294989249622</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.897424291151028</v>
       </c>
       <c r="N12">
-        <v>16.17478823793232</v>
+        <v>10.6827925130925</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>13.9648630335003</v>
+        <v>16.09023041104825</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>14.12910897606368</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.88328461991764</v>
+        <v>22.41604374080598</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.672197969120591</v>
+        <v>9.237194457089078</v>
       </c>
       <c r="E13">
-        <v>18.55065388983255</v>
+        <v>18.0554274159561</v>
       </c>
       <c r="F13">
-        <v>33.21773561949743</v>
+        <v>32.19778329298925</v>
       </c>
       <c r="G13">
-        <v>54.49653604750739</v>
+        <v>55.44013138094648</v>
       </c>
       <c r="H13">
-        <v>5.762194475771373</v>
+        <v>5.742666983022101</v>
       </c>
       <c r="I13">
-        <v>3.020870818068714</v>
+        <v>2.91955233256828</v>
       </c>
       <c r="J13">
-        <v>14.42325456157468</v>
+        <v>13.18007499176566</v>
       </c>
       <c r="K13">
-        <v>13.62159429727174</v>
+        <v>13.09228712224075</v>
       </c>
       <c r="L13">
-        <v>11.21442014242361</v>
+        <v>10.60318439834431</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.723310454768869</v>
       </c>
       <c r="N13">
-        <v>15.44050443504515</v>
+        <v>11.01001854325765</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>14.19849818160294</v>
+        <v>15.31576926906521</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>14.33567015484497</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.34359724476528</v>
+        <v>21.94958705693231</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.709120461007766</v>
+        <v>9.30455861226776</v>
       </c>
       <c r="E14">
-        <v>18.86634074993401</v>
+        <v>18.39655953436548</v>
       </c>
       <c r="F14">
-        <v>32.00263219788223</v>
+        <v>31.16463552082362</v>
       </c>
       <c r="G14">
-        <v>52.64620615474004</v>
+        <v>53.44122774265031</v>
       </c>
       <c r="H14">
-        <v>6.657499048449204</v>
+        <v>6.645166492347012</v>
       </c>
       <c r="I14">
-        <v>3.076289052289299</v>
+        <v>2.965512146862515</v>
       </c>
       <c r="J14">
-        <v>14.01677049300663</v>
+        <v>13.07179177695011</v>
       </c>
       <c r="K14">
-        <v>13.50701962835525</v>
+        <v>13.03357025255893</v>
       </c>
       <c r="L14">
-        <v>11.40538725618028</v>
+        <v>10.56580051520135</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.652737467587164</v>
       </c>
       <c r="N14">
-        <v>14.81999368058788</v>
+        <v>11.20573265607592</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>14.36143278553851</v>
+        <v>14.68684480852497</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>14.46320496805442</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.13469650519854</v>
+        <v>21.76705044038629</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.693313878591399</v>
+        <v>9.307674183740684</v>
       </c>
       <c r="E15">
-        <v>18.89641874472796</v>
+        <v>18.44631278042577</v>
       </c>
       <c r="F15">
-        <v>31.61619983272191</v>
+        <v>30.86225465955761</v>
       </c>
       <c r="G15">
-        <v>52.00989075585773</v>
+        <v>52.69224644031405</v>
       </c>
       <c r="H15">
-        <v>6.859231870542684</v>
+        <v>6.849377752659167</v>
       </c>
       <c r="I15">
-        <v>3.104125233088976</v>
+        <v>2.989630620067124</v>
       </c>
       <c r="J15">
-        <v>13.88405472732831</v>
+        <v>13.09913055445428</v>
       </c>
       <c r="K15">
-        <v>13.5019638778287</v>
+        <v>13.04127080942773</v>
       </c>
       <c r="L15">
-        <v>11.42853674504503</v>
+        <v>10.5681688047861</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.653151298270165</v>
       </c>
       <c r="N15">
-        <v>14.62416466984283</v>
+        <v>11.23413348983779</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>14.3999622510133</v>
+        <v>14.49741634554987</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>14.4865450487152</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.48459085893023</v>
+        <v>21.1836281244316</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.43756228659395</v>
+        <v>9.147909991210568</v>
       </c>
       <c r="E16">
-        <v>18.36203483471355</v>
+        <v>18.02501547327912</v>
       </c>
       <c r="F16">
-        <v>30.90845158570686</v>
+        <v>30.4787680667067</v>
       </c>
       <c r="G16">
-        <v>50.45339306889171</v>
+        <v>50.49308520139306</v>
       </c>
       <c r="H16">
-        <v>6.563368224155903</v>
+        <v>6.562500612497948</v>
       </c>
       <c r="I16">
-        <v>3.209256879184845</v>
+        <v>3.075374960700361</v>
       </c>
       <c r="J16">
-        <v>13.61292030598704</v>
+        <v>13.5485620826947</v>
       </c>
       <c r="K16">
-        <v>13.7185714647449</v>
+        <v>13.25345182775456</v>
       </c>
       <c r="L16">
-        <v>11.15273334930718</v>
+        <v>10.68405072409338</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.82183747569791</v>
       </c>
       <c r="N16">
-        <v>14.180555968554</v>
+        <v>10.99318133282454</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>14.33900349180367</v>
+        <v>14.12669438303667</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>14.37227661232411</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.27651685050012</v>
+        <v>20.97978737447795</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.217774786547459</v>
+        <v>8.971843209657695</v>
       </c>
       <c r="E17">
-        <v>17.76686362323173</v>
+        <v>17.48494542563323</v>
       </c>
       <c r="F17">
-        <v>31.03636872887907</v>
+        <v>30.71694198696746</v>
       </c>
       <c r="G17">
-        <v>50.28263929554939</v>
+        <v>49.99693708435088</v>
       </c>
       <c r="H17">
-        <v>5.806768952770586</v>
+        <v>5.810282812127323</v>
       </c>
       <c r="I17">
-        <v>3.261139577858025</v>
+        <v>3.118140113598908</v>
       </c>
       <c r="J17">
-        <v>13.62862202035429</v>
+        <v>13.86186409771537</v>
       </c>
       <c r="K17">
-        <v>13.93797543535397</v>
+        <v>13.44640088243736</v>
       </c>
       <c r="L17">
-        <v>10.83115690378723</v>
+        <v>10.80529734758754</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.977221252109059</v>
       </c>
       <c r="N17">
-        <v>14.1824318780294</v>
+        <v>10.68941335946341</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>14.20711260847108</v>
+        <v>14.20433565251406</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>14.22340695138979</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.45198882858519</v>
+        <v>21.114660357213</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.004937784032197</v>
+        <v>8.778241417482322</v>
       </c>
       <c r="E18">
-        <v>17.0581339223964</v>
+        <v>16.80709853460794</v>
       </c>
       <c r="F18">
-        <v>31.91365084614631</v>
+        <v>31.58821816940651</v>
       </c>
       <c r="G18">
-        <v>51.32192885511528</v>
+        <v>50.82538914334399</v>
       </c>
       <c r="H18">
-        <v>4.607189858720228</v>
+        <v>4.613332626890858</v>
       </c>
       <c r="I18">
-        <v>3.261707724079431</v>
+        <v>3.114892879149093</v>
       </c>
       <c r="J18">
-        <v>13.89653219546797</v>
+        <v>14.23335879083548</v>
       </c>
       <c r="K18">
-        <v>14.21744345847605</v>
+        <v>13.67505330118635</v>
       </c>
       <c r="L18">
-        <v>10.440692592346</v>
+        <v>10.97004229414289</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.155414423528683</v>
       </c>
       <c r="N18">
-        <v>14.56452337239651</v>
+        <v>10.31008855832296</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>13.999640151091</v>
+        <v>14.68042550071589</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>14.02067593313517</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.87793686875108</v>
+        <v>21.4741069571038</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.822989662117662</v>
+        <v>8.60118517733825</v>
       </c>
       <c r="E19">
-        <v>16.35979787312849</v>
+        <v>16.12369228912427</v>
       </c>
       <c r="F19">
-        <v>33.25920504197526</v>
+        <v>32.862450136188</v>
       </c>
       <c r="G19">
-        <v>53.16094945175696</v>
+        <v>52.51351934891652</v>
       </c>
       <c r="H19">
-        <v>3.303102847894861</v>
+        <v>3.310346465122677</v>
       </c>
       <c r="I19">
-        <v>3.237076928565912</v>
+        <v>3.094639408530361</v>
       </c>
       <c r="J19">
-        <v>14.32471113708573</v>
+        <v>14.66160470043429</v>
       </c>
       <c r="K19">
-        <v>14.53733090112833</v>
+        <v>13.92385358457123</v>
       </c>
       <c r="L19">
-        <v>10.05603655375137</v>
+        <v>11.16210383554861</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.345523959354852</v>
       </c>
       <c r="N19">
-        <v>15.24565206172459</v>
+        <v>9.931006323347383</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>13.77558317026433</v>
+        <v>15.44365702591625</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>13.81272175566212</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.03696497508014</v>
+        <v>22.49795511327126</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.731895898035912</v>
+        <v>8.4813608566472</v>
       </c>
       <c r="E20">
-        <v>15.71026274923874</v>
+        <v>15.45331544348131</v>
       </c>
       <c r="F20">
-        <v>35.89638802477525</v>
+        <v>35.2580295626675</v>
       </c>
       <c r="G20">
-        <v>57.18177778041245</v>
+        <v>56.52231959049455</v>
       </c>
       <c r="H20">
-        <v>2.489097887602304</v>
+        <v>2.480840321136325</v>
       </c>
       <c r="I20">
-        <v>3.109849768569878</v>
+        <v>2.987574934793638</v>
       </c>
       <c r="J20">
-        <v>15.1991111964469</v>
+        <v>15.27226861124242</v>
       </c>
       <c r="K20">
-        <v>14.99231748168816</v>
+        <v>14.23777569683701</v>
       </c>
       <c r="L20">
-        <v>9.693011421543723</v>
+        <v>11.40289246517696</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.61110871508194</v>
       </c>
       <c r="N20">
-        <v>16.64737822928773</v>
+        <v>9.56141257963095</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>13.4713601552941</v>
+        <v>16.89947129688345</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>13.55432615903584</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.4182496636974</v>
+        <v>23.71591198540016</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.129738905873634</v>
+        <v>8.704035517615353</v>
       </c>
       <c r="E21">
-        <v>16.41285524101758</v>
+        <v>15.95953285913613</v>
       </c>
       <c r="F21">
-        <v>37.81165466770868</v>
+        <v>36.47347691856861</v>
       </c>
       <c r="G21">
-        <v>60.80929469475171</v>
+        <v>61.39647193788219</v>
       </c>
       <c r="H21">
-        <v>2.881715640768495</v>
+        <v>2.822665471381248</v>
       </c>
       <c r="I21">
-        <v>2.903540418006242</v>
+        <v>2.822676128464151</v>
       </c>
       <c r="J21">
-        <v>15.90421060417931</v>
+        <v>14.46758066925874</v>
       </c>
       <c r="K21">
-        <v>14.80905397248131</v>
+        <v>13.94504739429844</v>
       </c>
       <c r="L21">
-        <v>10.03074475312031</v>
+        <v>11.16257872207844</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.482176857198416</v>
       </c>
       <c r="N21">
-        <v>17.75483452782389</v>
+        <v>9.842268551312841</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>13.43347357422233</v>
+        <v>17.78961264531448</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>13.62306780020915</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.27180955583727</v>
+        <v>24.46368901699262</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.393062580123852</v>
+        <v>8.850226530296192</v>
       </c>
       <c r="E22">
-        <v>16.8923659029111</v>
+        <v>16.30526077793921</v>
       </c>
       <c r="F22">
-        <v>38.97519877448515</v>
+        <v>37.16104019049912</v>
       </c>
       <c r="G22">
-        <v>63.02474324295253</v>
+        <v>64.46932685374279</v>
       </c>
       <c r="H22">
-        <v>3.129559411012325</v>
+        <v>3.03725287309057</v>
       </c>
       <c r="I22">
-        <v>2.762119063202865</v>
+        <v>2.705985963247159</v>
       </c>
       <c r="J22">
-        <v>16.33923251207548</v>
+        <v>13.85369963267784</v>
       </c>
       <c r="K22">
-        <v>14.68923110552413</v>
+        <v>13.74857227380738</v>
       </c>
       <c r="L22">
-        <v>10.2637311432176</v>
+        <v>11.0056818954393</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.404953605718584</v>
       </c>
       <c r="N22">
-        <v>18.3861707002807</v>
+        <v>10.03584623859529</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>13.41566851698713</v>
+        <v>18.321879397687</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>13.67859311537933</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.84283699918909</v>
+        <v>24.1006521147095</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.250359039858603</v>
+        <v>8.786766584804559</v>
       </c>
       <c r="E23">
-        <v>16.62719149615314</v>
+        <v>16.13332472652377</v>
       </c>
       <c r="F23">
-        <v>38.38370429561216</v>
+        <v>36.88725204589567</v>
       </c>
       <c r="G23">
-        <v>61.88555062963269</v>
+        <v>62.72707069431024</v>
       </c>
       <c r="H23">
-        <v>2.998224598009378</v>
+        <v>2.925871594317333</v>
       </c>
       <c r="I23">
-        <v>2.825558675559368</v>
+        <v>2.752944844545065</v>
       </c>
       <c r="J23">
-        <v>16.11645165612621</v>
+        <v>14.34965603078336</v>
       </c>
       <c r="K23">
-        <v>14.77446804077141</v>
+        <v>13.87905346282699</v>
       </c>
       <c r="L23">
-        <v>10.13450020118874</v>
+        <v>11.10550578894805</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.468126873713381</v>
       </c>
       <c r="N23">
-        <v>18.03624273781609</v>
+        <v>9.934768405371647</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>13.41606805761553</v>
+        <v>18.04402741508064</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>13.6339349648684</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.10698930531235</v>
+        <v>22.56016472543394</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.705543271393021</v>
+        <v>8.456442701859917</v>
       </c>
       <c r="E24">
-        <v>15.61966135855807</v>
+        <v>15.36415788519842</v>
       </c>
       <c r="F24">
-        <v>36.06618456548972</v>
+        <v>35.42223003558377</v>
       </c>
       <c r="G24">
-        <v>57.40481221901292</v>
+        <v>56.71832731612376</v>
       </c>
       <c r="H24">
-        <v>2.494186925507773</v>
+        <v>2.485803159862777</v>
       </c>
       <c r="I24">
-        <v>3.089734047775005</v>
+        <v>2.96421061656556</v>
       </c>
       <c r="J24">
-        <v>15.25259955214036</v>
+        <v>15.33418666913684</v>
       </c>
       <c r="K24">
-        <v>15.07224005925181</v>
+        <v>14.30344940468712</v>
       </c>
       <c r="L24">
-        <v>9.646009480698368</v>
+        <v>11.4519983499344</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.662418815349117</v>
       </c>
       <c r="N24">
-        <v>16.68385802374906</v>
+        <v>9.514272868558502</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>13.4373568115589</v>
+        <v>16.945430211457</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>13.51962184546392</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.07600031799193</v>
+        <v>20.61994065813492</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.098117755693458</v>
+        <v>7.883993316808806</v>
       </c>
       <c r="E25">
-        <v>14.48852028036628</v>
+        <v>14.23506294266205</v>
       </c>
       <c r="F25">
-        <v>33.50060931183064</v>
+        <v>33.04562723188369</v>
       </c>
       <c r="G25">
-        <v>52.34609614998803</v>
+        <v>51.62303345083444</v>
       </c>
       <c r="H25">
-        <v>1.93627377482939</v>
+        <v>1.969601661457955</v>
       </c>
       <c r="I25">
-        <v>3.385148285772308</v>
+        <v>3.215853244974229</v>
       </c>
       <c r="J25">
-        <v>14.31074069504835</v>
+        <v>14.58752795580717</v>
       </c>
       <c r="K25">
-        <v>15.41470379935869</v>
+        <v>14.68553584206193</v>
       </c>
       <c r="L25">
-        <v>9.101970865250184</v>
+        <v>11.78215383487516</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.860465275064417</v>
       </c>
       <c r="N25">
-        <v>15.16255774834802</v>
+        <v>8.959361573877485</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>13.47071750546989</v>
+        <v>15.46922361289021</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.46590855238905</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
